--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="177">
   <si>
     <t>Rank</t>
   </si>
@@ -85,13 +85,25 @@
     <t>230470</t>
   </si>
   <si>
+    <t>230539</t>
+  </si>
+  <si>
+    <t>230082</t>
+  </si>
+  <si>
     <t>230486</t>
   </si>
   <si>
     <t>230121</t>
   </si>
   <si>
-    <t>230539</t>
+    <t>230566</t>
+  </si>
+  <si>
+    <t>230256</t>
+  </si>
+  <si>
+    <t>230355</t>
   </si>
   <si>
     <t>230108</t>
@@ -100,247 +112,247 @@
     <t>230300</t>
   </si>
   <si>
+    <t>230481</t>
+  </si>
+  <si>
+    <t>230352</t>
+  </si>
+  <si>
+    <t>230051</t>
+  </si>
+  <si>
+    <t>230186</t>
+  </si>
+  <si>
     <t>230100</t>
   </si>
   <si>
-    <t>230352</t>
-  </si>
-  <si>
-    <t>230566</t>
-  </si>
-  <si>
-    <t>230481</t>
-  </si>
-  <si>
-    <t>230082</t>
-  </si>
-  <si>
-    <t>230256</t>
-  </si>
-  <si>
-    <t>230355</t>
+    <t>230689</t>
+  </si>
+  <si>
+    <t>230508</t>
+  </si>
+  <si>
+    <t>230390</t>
+  </si>
+  <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>230525</t>
+  </si>
+  <si>
+    <t>230544</t>
+  </si>
+  <si>
+    <t>230697</t>
+  </si>
+  <si>
+    <t>230332</t>
+  </si>
+  <si>
+    <t>230138</t>
+  </si>
+  <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
+    <t>230680</t>
+  </si>
+  <si>
+    <t>230145</t>
+  </si>
+  <si>
+    <t>230258</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>230436</t>
+  </si>
+  <si>
+    <t>230469</t>
+  </si>
+  <si>
+    <t>230536</t>
+  </si>
+  <si>
+    <t>230659</t>
+  </si>
+  <si>
+    <t>230487</t>
+  </si>
+  <si>
+    <t>230159</t>
+  </si>
+  <si>
+    <t>230353</t>
+  </si>
+  <si>
+    <t>230585</t>
+  </si>
+  <si>
+    <t>230140</t>
+  </si>
+  <si>
+    <t>230130</t>
+  </si>
+  <si>
+    <t>230502</t>
+  </si>
+  <si>
+    <t>230613</t>
+  </si>
+  <si>
+    <t>230321</t>
+  </si>
+  <si>
+    <t>230526</t>
+  </si>
+  <si>
+    <t>230017</t>
+  </si>
+  <si>
+    <t>230155</t>
+  </si>
+  <si>
+    <t>230687</t>
+  </si>
+  <si>
+    <t>230492</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>230045</t>
   </si>
   <si>
     <t>230063</t>
   </si>
   <si>
-    <t>230697</t>
-  </si>
-  <si>
-    <t>230689</t>
-  </si>
-  <si>
-    <t>230390</t>
-  </si>
-  <si>
-    <t>230508</t>
-  </si>
-  <si>
-    <t>230051</t>
-  </si>
-  <si>
-    <t>230138</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>230186</t>
-  </si>
-  <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>230521</t>
-  </si>
-  <si>
-    <t>230525</t>
-  </si>
-  <si>
-    <t>230544</t>
-  </si>
-  <si>
-    <t>230680</t>
-  </si>
-  <si>
-    <t>230332</t>
-  </si>
-  <si>
-    <t>230130</t>
-  </si>
-  <si>
-    <t>230145</t>
-  </si>
-  <si>
-    <t>230159</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>230155</t>
-  </si>
-  <si>
-    <t>230258</t>
-  </si>
-  <si>
-    <t>230536</t>
-  </si>
-  <si>
-    <t>230436</t>
-  </si>
-  <si>
-    <t>230469</t>
-  </si>
-  <si>
-    <t>230487</t>
-  </si>
-  <si>
-    <t>230659</t>
-  </si>
-  <si>
-    <t>230585</t>
-  </si>
-  <si>
-    <t>230140</t>
-  </si>
-  <si>
-    <t>230353</t>
-  </si>
-  <si>
-    <t>230502</t>
-  </si>
-  <si>
-    <t>230613</t>
-  </si>
-  <si>
-    <t>230321</t>
-  </si>
-  <si>
-    <t>230526</t>
+    <t>230473</t>
+  </si>
+  <si>
+    <t>230322</t>
+  </si>
+  <si>
+    <t>230417</t>
   </si>
   <si>
     <t>230280</t>
   </si>
   <si>
-    <t>230017</t>
-  </si>
-  <si>
-    <t>230687</t>
-  </si>
-  <si>
     <t>230495</t>
   </si>
   <si>
+    <t>230058</t>
+  </si>
+  <si>
+    <t>230016</t>
+  </si>
+  <si>
+    <t>230724</t>
+  </si>
+  <si>
+    <t>230726</t>
+  </si>
+  <si>
+    <t>230500</t>
+  </si>
+  <si>
+    <t>230629</t>
+  </si>
+  <si>
     <t>230211</t>
   </si>
   <si>
-    <t>230492</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>230724</t>
-  </si>
-  <si>
-    <t>230045</t>
-  </si>
-  <si>
-    <t>230473</t>
-  </si>
-  <si>
-    <t>230322</t>
-  </si>
-  <si>
-    <t>230417</t>
-  </si>
-  <si>
-    <t>230726</t>
-  </si>
-  <si>
-    <t>230016</t>
-  </si>
-  <si>
-    <t>230058</t>
-  </si>
-  <si>
-    <t>230500</t>
-  </si>
-  <si>
-    <t>230629</t>
+    <t>230164</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>230212</t>
+  </si>
+  <si>
+    <t>230197</t>
+  </si>
+  <si>
+    <t>230727</t>
+  </si>
+  <si>
+    <t>230507</t>
+  </si>
+  <si>
+    <t>230020</t>
+  </si>
+  <si>
+    <t>230527</t>
+  </si>
+  <si>
+    <t>230520</t>
+  </si>
+  <si>
+    <t>230052</t>
+  </si>
+  <si>
+    <t>230065</t>
+  </si>
+  <si>
+    <t>230477</t>
+  </si>
+  <si>
+    <t>230654</t>
+  </si>
+  <si>
+    <t>230180</t>
   </si>
   <si>
     <t>230147</t>
   </si>
   <si>
-    <t>230020</t>
-  </si>
-  <si>
-    <t>230507</t>
-  </si>
-  <si>
-    <t>230727</t>
-  </si>
-  <si>
-    <t>230052</t>
-  </si>
-  <si>
-    <t>230164</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>230197</t>
-  </si>
-  <si>
-    <t>230212</t>
-  </si>
-  <si>
-    <t>230065</t>
-  </si>
-  <si>
-    <t>230527</t>
+    <t>230735</t>
+  </si>
+  <si>
+    <t>230070</t>
+  </si>
+  <si>
+    <t>230563</t>
+  </si>
+  <si>
+    <t>230012</t>
   </si>
   <si>
     <t>230195</t>
   </si>
   <si>
-    <t>230012</t>
-  </si>
-  <si>
-    <t>230520</t>
-  </si>
-  <si>
-    <t>230180</t>
-  </si>
-  <si>
     <t>230229</t>
   </si>
   <si>
-    <t>230070</t>
-  </si>
-  <si>
     <t>230218</t>
   </si>
   <si>
-    <t>230654</t>
-  </si>
-  <si>
-    <t>230735</t>
-  </si>
-  <si>
-    <t>230477</t>
-  </si>
-  <si>
-    <t>230563</t>
+    <t>230261</t>
+  </si>
+  <si>
+    <t>230077</t>
+  </si>
+  <si>
+    <t>230407</t>
   </si>
   <si>
     <t>230458</t>
   </si>
   <si>
-    <t>230261</t>
+    <t>230636</t>
+  </si>
+  <si>
+    <t>230650</t>
   </si>
   <si>
     <t>230375</t>
@@ -349,78 +361,66 @@
     <t>B-</t>
   </si>
   <si>
-    <t>230077</t>
+    <t>230175</t>
+  </si>
+  <si>
+    <t>230493</t>
+  </si>
+  <si>
+    <t>I-we</t>
+  </si>
+  <si>
+    <t>230327</t>
+  </si>
+  <si>
+    <t>230581</t>
   </si>
   <si>
     <t>230395</t>
   </si>
   <si>
-    <t>230493</t>
-  </si>
-  <si>
-    <t>I-we</t>
-  </si>
-  <si>
-    <t>230175</t>
-  </si>
-  <si>
-    <t>230636</t>
-  </si>
-  <si>
-    <t>230650</t>
+    <t>230248</t>
+  </si>
+  <si>
+    <t>230730</t>
+  </si>
+  <si>
+    <t>230033</t>
+  </si>
+  <si>
+    <t>230208</t>
+  </si>
+  <si>
+    <t>230268</t>
+  </si>
+  <si>
+    <t>230444</t>
   </si>
   <si>
     <t>230013</t>
   </si>
   <si>
-    <t>230248</t>
-  </si>
-  <si>
-    <t>230407</t>
-  </si>
-  <si>
-    <t>230581</t>
-  </si>
-  <si>
-    <t>230327</t>
-  </si>
-  <si>
-    <t>230033</t>
-  </si>
-  <si>
-    <t>230444</t>
-  </si>
-  <si>
-    <t>230268</t>
-  </si>
-  <si>
-    <t>230730</t>
-  </si>
-  <si>
     <t>230259</t>
   </si>
   <si>
     <t>C+</t>
   </si>
   <si>
+    <t>230564</t>
+  </si>
+  <si>
+    <t>230183</t>
+  </si>
+  <si>
     <t>230224</t>
   </si>
   <si>
-    <t>230208</t>
+    <t>230203</t>
   </si>
   <si>
     <t>230238</t>
   </si>
   <si>
-    <t>230564</t>
-  </si>
-  <si>
-    <t>230183</t>
-  </si>
-  <si>
-    <t>230203</t>
-  </si>
-  <si>
     <t>230449</t>
   </si>
   <si>
@@ -436,76 +436,97 @@
     <t>23(20.0%)</t>
   </si>
   <si>
+    <t>21(26.2%)</t>
+  </si>
+  <si>
+    <t>30(26.1%)</t>
+  </si>
+  <si>
+    <t>73(63.5%)</t>
+  </si>
+  <si>
+    <t>75(65.2%)</t>
+  </si>
+  <si>
+    <t>10(8.7%)</t>
+  </si>
+  <si>
+    <t>11(73.3%)</t>
+  </si>
+  <si>
+    <t>76(66.1%)</t>
+  </si>
+  <si>
+    <t>16(13.9%)</t>
+  </si>
+  <si>
+    <t>49(42.6%)</t>
+  </si>
+  <si>
+    <t>25(31.2%)</t>
+  </si>
+  <si>
+    <t>57(49.6%)</t>
+  </si>
+  <si>
+    <t>31(27.0%)</t>
+  </si>
+  <si>
+    <t>37(32.2%)</t>
+  </si>
+  <si>
+    <t>46(40.0%)</t>
+  </si>
+  <si>
+    <t>12(10.4%)</t>
+  </si>
+  <si>
+    <t>1(0.9%)</t>
+  </si>
+  <si>
+    <t>15(18.8%)</t>
+  </si>
+  <si>
+    <t>9(7.8%)</t>
+  </si>
+  <si>
+    <t>3(2.6%)</t>
+  </si>
+  <si>
+    <t>19(16.5%)</t>
+  </si>
+  <si>
+    <t>2(13.3%)</t>
+  </si>
+  <si>
+    <t>7(6.1%)</t>
+  </si>
+  <si>
+    <t>14(12.2%)</t>
+  </si>
+  <si>
+    <t>13(16.2%)</t>
+  </si>
+  <si>
+    <t>2(1.7%)</t>
+  </si>
+  <si>
     <t>0(0.0%)</t>
   </si>
   <si>
-    <t>30(26.1%)</t>
-  </si>
-  <si>
-    <t>73(63.5%)</t>
-  </si>
-  <si>
-    <t>10(8.7%)</t>
-  </si>
-  <si>
-    <t>11(73.3%)</t>
-  </si>
-  <si>
-    <t>76(66.1%)</t>
-  </si>
-  <si>
-    <t>16(13.9%)</t>
-  </si>
-  <si>
-    <t>48(41.7%)</t>
-  </si>
-  <si>
-    <t>57(49.6%)</t>
-  </si>
-  <si>
-    <t>31(27.0%)</t>
-  </si>
-  <si>
-    <t>46(40.0%)</t>
-  </si>
-  <si>
-    <t>12(10.4%)</t>
-  </si>
-  <si>
-    <t>1(0.9%)</t>
-  </si>
-  <si>
-    <t>24(20.9%)</t>
-  </si>
-  <si>
-    <t>9(7.8%)</t>
-  </si>
-  <si>
-    <t>19(16.5%)</t>
-  </si>
-  <si>
-    <t>2(13.3%)</t>
-  </si>
-  <si>
-    <t>7(6.1%)</t>
-  </si>
-  <si>
-    <t>14(12.2%)</t>
-  </si>
-  <si>
-    <t>2(1.7%)</t>
-  </si>
-  <si>
     <t>21(18.3%)</t>
   </si>
   <si>
     <t>5(4.3%)</t>
   </si>
   <si>
+    <t>2(2.5%)</t>
+  </si>
+  <si>
     <t>13(11.3%)</t>
   </si>
   <si>
-    <t>3(2.6%)</t>
+    <t>4(5.0%)</t>
   </si>
   <si>
     <t>C</t>
@@ -946,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -955,7 +976,7 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -988,10 +1009,10 @@
         <v>142</v>
       </c>
       <c r="W2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="X2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1014,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1023,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -1035,31 +1056,31 @@
         <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="S3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="U3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="V3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="W3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="X3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1082,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1091,7 +1112,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -1100,34 +1121,34 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
         <v>136</v>
       </c>
       <c r="Q4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="R4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="S4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="T4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="U4" t="s">
         <v>137</v>
       </c>
       <c r="V4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="W4" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="X4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1150,7 +1171,7 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1159,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -1168,34 +1189,34 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="R5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="S5" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="T5" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="U5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="V5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="W5" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1218,7 +1239,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1227,7 +1248,7 @@
         <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -1236,34 +1257,34 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="T6" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="U6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="V6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W6" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1286,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -1295,7 +1316,7 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -1304,34 +1325,34 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="T7" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="U7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="V7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W7" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1363,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -1372,34 +1393,34 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="T8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="V8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W8" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1422,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -1431,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -1440,34 +1461,34 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="T9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="V9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X9" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1487,19 +1508,19 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
@@ -1508,34 +1529,34 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="T10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="V10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X10" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1555,19 +1576,19 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -1576,34 +1597,34 @@
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="T11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="V11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1623,19 +1644,19 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
@@ -1644,34 +1665,34 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="T12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="V12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1682,19 +1703,19 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1703,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -1712,34 +1733,34 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="T13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="V13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1753,61 +1774,61 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L14">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="P14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="Q14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="R14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="S14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="T14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="U14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="V14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1824,13 +1845,13 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1839,7 +1860,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K15" t="s">
         <v>17</v>
@@ -1865,19 +1886,19 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
@@ -1894,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1906,16 +1927,16 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
         <v>17</v>
@@ -1932,7 +1953,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1944,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
@@ -1953,10 +1974,10 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L18">
         <v>4</v>
@@ -1970,7 +1991,7 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1979,19 +2000,19 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -2017,19 +2038,19 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -2058,16 +2079,16 @@
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K21" t="s">
         <v>17</v>
@@ -2087,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -2096,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
@@ -2105,7 +2126,7 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
@@ -2128,25 +2149,25 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L23">
         <v>4</v>
@@ -2181,7 +2202,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
@@ -2204,22 +2225,22 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
@@ -2242,22 +2263,22 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
@@ -2289,13 +2310,13 @@
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
@@ -2315,7 +2336,7 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -2330,10 +2351,10 @@
         <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K28" t="s">
         <v>17</v>
@@ -2371,7 +2392,7 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
@@ -2409,10 +2430,10 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2426,7 +2447,7 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -2438,16 +2459,16 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -2467,7 +2488,7 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -2476,16 +2497,16 @@
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K32" t="s">
         <v>17</v>
@@ -2514,7 +2535,7 @@
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
@@ -2523,7 +2544,7 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -2552,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
@@ -2561,7 +2582,7 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -2599,7 +2620,7 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -2616,19 +2637,19 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
@@ -2637,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="J36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -2648,7 +2669,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -2660,36 +2681,36 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2698,71 +2719,71 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s">
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L39">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -2789,18 +2810,18 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L40">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -2809,13 +2830,13 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -2827,18 +2848,18 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L41">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -2847,42 +2868,42 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L42">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -2891,30 +2912,30 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K43" t="s">
         <v>14</v>
       </c>
       <c r="L43">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -2923,36 +2944,36 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L44">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -2961,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -2973,24 +2994,24 @@
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s">
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L45">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
@@ -2999,36 +3020,36 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L46">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
@@ -3040,33 +3061,33 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L47">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -3078,10 +3099,10 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -3090,13 +3111,13 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L48">
         <v>3.95</v>
@@ -3104,7 +3125,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
@@ -3119,22 +3140,22 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
       </c>
       <c r="J49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L49">
         <v>3.95</v>
@@ -3142,7 +3163,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -3157,30 +3178,30 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I50" t="s">
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
       </c>
       <c r="L50">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -3195,30 +3216,30 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
       <c r="L51">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -3230,33 +3251,33 @@
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
       </c>
       <c r="L52">
-        <v>3.94</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>67</v>
@@ -3271,30 +3292,30 @@
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K53" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L53">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -3306,33 +3327,33 @@
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L54">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>69</v>
@@ -3344,63 +3365,63 @@
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L55">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L56">
         <v>3.92</v>
@@ -3408,16 +3429,16 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -3426,68 +3447,68 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="L57">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L58">
-        <v>3.91</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -3499,30 +3520,30 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I59" t="s">
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L59">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -3531,7 +3552,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -3540,27 +3561,27 @@
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="J60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="L60">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
@@ -3569,36 +3590,36 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
       </c>
       <c r="L61">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -3607,36 +3628,36 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
         <v>17</v>
       </c>
       <c r="J62" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L62">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
@@ -3654,33 +3675,33 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L63">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -3689,30 +3710,30 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I64" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="J64" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L64">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>80</v>
@@ -3721,42 +3742,42 @@
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="L65">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -3765,30 +3786,30 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L66">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
@@ -3809,24 +3830,24 @@
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
       </c>
       <c r="J67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="L67">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -3847,24 +3868,24 @@
         <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
       </c>
       <c r="J68" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L68">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
@@ -3882,19 +3903,19 @@
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L69">
         <v>3.89</v>
@@ -3902,7 +3923,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>85</v>
@@ -3911,83 +3932,83 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K70" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="L70">
-        <v>3.89</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K71" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L71">
-        <v>3.87</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -3996,30 +4017,30 @@
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K72" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="L72">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -4031,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
@@ -4043,21 +4064,21 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K73" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L73">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -4069,33 +4090,33 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L74">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -4107,30 +4128,30 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="L75">
-        <v>3.84</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>92</v>
@@ -4139,7 +4160,7 @@
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -4151,24 +4172,24 @@
         <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K76" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="L76">
-        <v>3.84</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>93</v>
@@ -4177,13 +4198,13 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
@@ -4192,27 +4213,27 @@
         <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L77">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -4221,30 +4242,30 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J78" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L78">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>95</v>
@@ -4262,7 +4283,7 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H79" t="s">
         <v>17</v>
@@ -4271,10 +4292,10 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K79" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L79">
         <v>3.84</v>
@@ -4282,7 +4303,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>96</v>
@@ -4291,36 +4312,36 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L80">
-        <v>3.84</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>97</v>
@@ -4332,10 +4353,10 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G81" t="s">
         <v>13</v>
@@ -4347,10 +4368,10 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="L81">
         <v>3.83</v>
@@ -4358,7 +4379,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>98</v>
@@ -4373,22 +4394,22 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K82" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L82">
         <v>3.83</v>
@@ -4396,7 +4417,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
         <v>99</v>
@@ -4405,16 +4426,16 @@
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
@@ -4423,10 +4444,10 @@
         <v>17</v>
       </c>
       <c r="J83" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="L83">
         <v>3.83</v>
@@ -4434,7 +4455,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>100</v>
@@ -4449,30 +4470,30 @@
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G84" t="s">
         <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="L84">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
@@ -4484,13 +4505,13 @@
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s">
         <v>17</v>
@@ -4499,10 +4520,10 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K85" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L85">
         <v>3.82</v>
@@ -4516,7 +4537,7 @@
         <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
@@ -4525,22 +4546,22 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L86">
         <v>3.81</v>
@@ -4548,7 +4569,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>103</v>
@@ -4560,13 +4581,13 @@
         <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
@@ -4575,18 +4596,18 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="L87">
-        <v>3.81</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>104</v>
@@ -4595,31 +4616,31 @@
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H88" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K88" t="s">
         <v>17</v>
       </c>
       <c r="L88">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4633,28 +4654,28 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
       </c>
       <c r="J89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L89">
         <v>3.78</v>
@@ -4662,13 +4683,13 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
@@ -4677,30 +4698,30 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H90" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L90">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>107</v>
@@ -4709,31 +4730,31 @@
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H91" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I91" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L91">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4744,19 +4765,19 @@
         <v>108</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E92" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
@@ -4765,18 +4786,18 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L92">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>109</v>
@@ -4794,80 +4815,80 @@
         <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I93" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="J93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="L93">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H94" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I94" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J94" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L94">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
@@ -4876,62 +4897,62 @@
         <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L95">
-        <v>3.69</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K96" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="L96">
-        <v>3.69</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -4943,98 +4964,98 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K97" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="L97">
-        <v>3.69</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H98" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J98" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="K98" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="L98">
-        <v>3.69</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" t="s">
+        <v>70</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" t="s">
+        <v>51</v>
+      </c>
+      <c r="K99" t="s">
         <v>117</v>
-      </c>
-      <c r="C99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" t="s">
-        <v>53</v>
-      </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" t="s">
-        <v>74</v>
-      </c>
-      <c r="G99" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" t="s">
-        <v>53</v>
-      </c>
-      <c r="I99" t="s">
-        <v>17</v>
-      </c>
-      <c r="J99" t="s">
-        <v>13</v>
-      </c>
-      <c r="K99" t="s">
-        <v>53</v>
       </c>
       <c r="L99">
         <v>3.69</v>
@@ -5057,22 +5078,22 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H100" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K100" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="L100">
         <v>3.68</v>
@@ -5080,45 +5101,45 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>119</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="L101">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
         <v>120</v>
@@ -5127,31 +5148,31 @@
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H102" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I102" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="L102">
-        <v>3.67</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5162,34 +5183,34 @@
         <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H103" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I103" t="s">
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="L103">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5203,36 +5224,36 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I104" t="s">
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K104" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="L104">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>123</v>
@@ -5247,63 +5268,63 @@
         <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
       </c>
       <c r="J105" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L105">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>124</v>
       </c>
       <c r="C106" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H106" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J106" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L106">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5317,80 +5338,80 @@
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H107" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I107" t="s">
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L107">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>126</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D108" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H108" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J108" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L108">
-        <v>3.59</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>127</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -5399,25 +5420,25 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H109" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="L109">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5425,42 +5446,42 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" t="s">
+        <v>70</v>
+      </c>
+      <c r="G110" t="s">
+        <v>86</v>
+      </c>
+      <c r="H110" t="s">
+        <v>51</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" t="s">
         <v>129</v>
       </c>
-      <c r="C110" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" t="s">
-        <v>74</v>
-      </c>
-      <c r="G110" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" t="s">
-        <v>17</v>
-      </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" t="s">
-        <v>13</v>
-      </c>
-      <c r="K110" t="s">
-        <v>128</v>
-      </c>
       <c r="L110">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>130</v>
@@ -5472,25 +5493,25 @@
         <v>17</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="G111" t="s">
         <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I111" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L111">
         <v>3.57</v>
@@ -5504,39 +5525,39 @@
         <v>131</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H112" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="K112" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="L112">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>132</v>
@@ -5551,25 +5572,25 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H113" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="L113">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5583,31 +5604,31 @@
         <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H114" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J114" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L114">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5618,34 +5639,34 @@
         <v>134</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E115" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I115" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="L115">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5656,34 +5677,34 @@
         <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H116" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I116" t="s">
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L116">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
     </row>
   </sheetData>

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -121,6 +121,9 @@
     <t>230051</t>
   </si>
   <si>
+    <t>230487</t>
+  </si>
+  <si>
     <t>230186</t>
   </si>
   <si>
@@ -184,9 +187,6 @@
     <t>230659</t>
   </si>
   <si>
-    <t>230487</t>
-  </si>
-  <si>
     <t>230159</t>
   </si>
   <si>
@@ -454,7 +454,7 @@
     <t>11(73.3%)</t>
   </si>
   <si>
-    <t>76(66.1%)</t>
+    <t>77(67.0%)</t>
   </si>
   <si>
     <t>16(13.9%)</t>
@@ -478,7 +478,7 @@
     <t>46(40.0%)</t>
   </si>
   <si>
-    <t>12(10.4%)</t>
+    <t>11(9.6%)</t>
   </si>
   <si>
     <t>1(0.9%)</t>
@@ -1121,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
         <v>136</v>
@@ -2117,10 +2117,10 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
         <v>14</v>
@@ -2149,22 +2149,22 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
@@ -2193,16 +2193,16 @@
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
@@ -2237,7 +2237,7 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -2263,19 +2263,19 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -2301,16 +2301,16 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
@@ -2430,10 +2430,10 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L30">
         <v>4</v>
@@ -2447,7 +2447,7 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -2459,19 +2459,19 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -2485,10 +2485,10 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -2497,7 +2497,7 @@
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
@@ -2526,7 +2526,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -2535,16 +2535,16 @@
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -2573,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
@@ -2582,7 +2582,7 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -2605,13 +2605,13 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
@@ -2649,13 +2649,13 @@
         <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -2681,36 +2681,36 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L37">
-        <v>3.96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2731,13 +2731,13 @@
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="L38">
         <v>3.96</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -2754,7 +2754,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -2769,13 +2769,13 @@
         <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s">
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L39">
         <v>3.96</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -2792,7 +2792,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -2801,7 +2801,7 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
         <v>17</v>
@@ -2813,7 +2813,7 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L40">
         <v>3.96</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -2830,13 +2830,13 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -2851,7 +2851,7 @@
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L41">
         <v>3.96</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -2868,7 +2868,7 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -2877,10 +2877,10 @@
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
         <v>14</v>
@@ -2889,7 +2889,7 @@
         <v>14</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L42">
         <v>3.96</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -2912,7 +2912,7 @@
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -2965,7 +2965,7 @@
         <v>14</v>
       </c>
       <c r="K44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L44">
         <v>3.96</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -3003,7 +3003,7 @@
         <v>14</v>
       </c>
       <c r="K45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L45">
         <v>3.96</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
@@ -3041,7 +3041,7 @@
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L46">
         <v>3.96</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
@@ -3067,7 +3067,7 @@
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
@@ -3102,7 +3102,7 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -3140,7 +3140,7 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -3184,7 +3184,7 @@
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s">
         <v>14</v>
@@ -3222,7 +3222,7 @@
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I51" t="s">
         <v>14</v>
@@ -3254,7 +3254,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -3295,7 +3295,7 @@
         <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H53" t="s">
         <v>17</v>
@@ -3307,7 +3307,7 @@
         <v>14</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L53">
         <v>3.93</v>
@@ -3327,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L54">
         <v>3.93</v>
@@ -3482,7 +3482,7 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
@@ -3497,7 +3497,7 @@
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L58">
         <v>3.92</v>
@@ -3596,10 +3596,10 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H61" t="s">
         <v>17</v>
@@ -3628,7 +3628,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -3649,7 +3649,7 @@
         <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L62">
         <v>3.92</v>
@@ -3710,13 +3710,13 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -3786,7 +3786,7 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
@@ -3801,7 +3801,7 @@
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L66">
         <v>3.9</v>
@@ -3830,7 +3830,7 @@
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -3839,7 +3839,7 @@
         <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L67">
         <v>3.9</v>
@@ -3868,7 +3868,7 @@
         <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
@@ -3877,7 +3877,7 @@
         <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L68">
         <v>3.9</v>
@@ -3903,19 +3903,19 @@
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s">
         <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L69">
         <v>3.89</v>
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J71" t="s">
         <v>14</v>
@@ -4023,7 +4023,7 @@
         <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J72" t="s">
         <v>17</v>
@@ -4052,7 +4052,7 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
@@ -4096,7 +4096,7 @@
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I74" t="s">
         <v>14</v>
@@ -4128,13 +4128,13 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
@@ -4204,7 +4204,7 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
@@ -4242,10 +4242,10 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
@@ -4283,7 +4283,7 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s">
         <v>17</v>
@@ -4371,7 +4371,7 @@
         <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L81">
         <v>3.83</v>
@@ -4394,10 +4394,10 @@
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
@@ -4426,13 +4426,13 @@
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G83" t="s">
         <v>70</v>
@@ -4476,7 +4476,7 @@
         <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I84" t="s">
         <v>14</v>
@@ -4511,7 +4511,7 @@
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s">
         <v>17</v>
@@ -4546,7 +4546,7 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
@@ -4616,13 +4616,13 @@
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G88" t="s">
         <v>70</v>
@@ -4631,7 +4631,7 @@
         <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s">
         <v>17</v>
@@ -4660,7 +4660,7 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G89" t="s">
         <v>70</v>
@@ -4704,7 +4704,7 @@
         <v>70</v>
       </c>
       <c r="H90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I90" t="s">
         <v>14</v>
@@ -4739,7 +4739,7 @@
         <v>70</v>
       </c>
       <c r="G91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H91" t="s">
         <v>17</v>
@@ -4765,19 +4765,19 @@
         <v>108</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
@@ -4818,7 +4818,7 @@
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I93" t="s">
         <v>70</v>
@@ -4850,13 +4850,13 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G94" t="s">
         <v>70</v>
       </c>
       <c r="H94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -4882,7 +4882,7 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -4920,7 +4920,7 @@
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -4932,7 +4932,7 @@
         <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I96" t="s">
         <v>17</v>
@@ -4941,7 +4941,7 @@
         <v>14</v>
       </c>
       <c r="K96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L96">
         <v>3.74</v>
@@ -4970,7 +4970,7 @@
         <v>70</v>
       </c>
       <c r="H97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I97" t="s">
         <v>14</v>
@@ -5005,19 +5005,19 @@
         <v>70</v>
       </c>
       <c r="G98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L98">
         <v>3.7</v>
@@ -5034,7 +5034,7 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
@@ -5046,13 +5046,13 @@
         <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I99" t="s">
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K99" t="s">
         <v>117</v>
@@ -5078,10 +5078,10 @@
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H100" t="s">
         <v>70</v>
@@ -5122,7 +5122,7 @@
         <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
@@ -5148,7 +5148,7 @@
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -5192,7 +5192,7 @@
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G103" t="s">
         <v>70</v>
@@ -5224,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -5268,7 +5268,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G105" t="s">
         <v>70</v>
@@ -5309,13 +5309,13 @@
         <v>86</v>
       </c>
       <c r="G106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J106" t="s">
         <v>17</v>
@@ -5338,7 +5338,7 @@
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
@@ -5359,7 +5359,7 @@
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L107">
         <v>3.62</v>
@@ -5382,7 +5382,7 @@
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G108" t="s">
         <v>70</v>
@@ -5391,7 +5391,7 @@
         <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J108" t="s">
         <v>17</v>
@@ -5426,7 +5426,7 @@
         <v>114</v>
       </c>
       <c r="H109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -5435,7 +5435,7 @@
         <v>14</v>
       </c>
       <c r="K109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L109">
         <v>3.6</v>
@@ -5464,7 +5464,7 @@
         <v>86</v>
       </c>
       <c r="H110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -5502,7 +5502,7 @@
         <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -5537,7 +5537,7 @@
         <v>70</v>
       </c>
       <c r="G112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H112" t="s">
         <v>70</v>
@@ -5546,7 +5546,7 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K112" t="s">
         <v>70</v>
@@ -5619,7 +5619,7 @@
         <v>70</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J114" t="s">
         <v>17</v>

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -97,42 +97,42 @@
     <t>230121</t>
   </si>
   <si>
+    <t>230256</t>
+  </si>
+  <si>
+    <t>230355</t>
+  </si>
+  <si>
     <t>230566</t>
   </si>
   <si>
-    <t>230256</t>
-  </si>
-  <si>
-    <t>230355</t>
-  </si>
-  <si>
     <t>230108</t>
   </si>
   <si>
     <t>230300</t>
   </si>
   <si>
+    <t>230352</t>
+  </si>
+  <si>
     <t>230481</t>
   </si>
   <si>
-    <t>230352</t>
-  </si>
-  <si>
     <t>230051</t>
   </si>
   <si>
     <t>230487</t>
   </si>
   <si>
+    <t>230689</t>
+  </si>
+  <si>
     <t>230186</t>
   </si>
   <si>
     <t>230100</t>
   </si>
   <si>
-    <t>230689</t>
-  </si>
-  <si>
     <t>230508</t>
   </si>
   <si>
@@ -151,18 +151,18 @@
     <t>230697</t>
   </si>
   <si>
+    <t>230138</t>
+  </si>
+  <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
     <t>230332</t>
   </si>
   <si>
-    <t>230138</t>
-  </si>
-  <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
     <t>230680</t>
   </si>
   <si>
@@ -181,25 +181,31 @@
     <t>230469</t>
   </si>
   <si>
+    <t>230353</t>
+  </si>
+  <si>
+    <t>230140</t>
+  </si>
+  <si>
+    <t>230130</t>
+  </si>
+  <si>
     <t>230536</t>
   </si>
   <si>
     <t>230659</t>
   </si>
   <si>
+    <t>230585</t>
+  </si>
+  <si>
     <t>230159</t>
   </si>
   <si>
-    <t>230353</t>
-  </si>
-  <si>
-    <t>230585</t>
-  </si>
-  <si>
-    <t>230140</t>
-  </si>
-  <si>
-    <t>230130</t>
+    <t>230321</t>
+  </si>
+  <si>
+    <t>230017</t>
   </si>
   <si>
     <t>230502</t>
@@ -208,19 +214,16 @@
     <t>230613</t>
   </si>
   <si>
-    <t>230321</t>
-  </si>
-  <si>
     <t>230526</t>
   </si>
   <si>
-    <t>230017</t>
+    <t>230687</t>
   </si>
   <si>
     <t>230155</t>
   </si>
   <si>
-    <t>230687</t>
+    <t>230495</t>
   </si>
   <si>
     <t>230492</t>
@@ -247,9 +250,6 @@
     <t>230280</t>
   </si>
   <si>
-    <t>230495</t>
-  </si>
-  <si>
     <t>230058</t>
   </si>
   <si>
@@ -307,21 +307,21 @@
     <t>230477</t>
   </si>
   <si>
+    <t>230180</t>
+  </si>
+  <si>
+    <t>230147</t>
+  </si>
+  <si>
     <t>230654</t>
   </si>
   <si>
-    <t>230180</t>
-  </si>
-  <si>
-    <t>230147</t>
+    <t>230070</t>
   </si>
   <si>
     <t>230735</t>
   </si>
   <si>
-    <t>230070</t>
-  </si>
-  <si>
     <t>230563</t>
   </si>
   <si>
@@ -346,15 +346,15 @@
     <t>230407</t>
   </si>
   <si>
+    <t>230636</t>
+  </si>
+  <si>
+    <t>230650</t>
+  </si>
+  <si>
     <t>230458</t>
   </si>
   <si>
-    <t>230636</t>
-  </si>
-  <si>
-    <t>230650</t>
-  </si>
-  <si>
     <t>230375</t>
   </si>
   <si>
@@ -391,22 +391,22 @@
     <t>230208</t>
   </si>
   <si>
+    <t>230444</t>
+  </si>
+  <si>
     <t>230268</t>
   </si>
   <si>
-    <t>230444</t>
-  </si>
-  <si>
     <t>230013</t>
   </si>
   <si>
+    <t>230564</t>
+  </si>
+  <si>
     <t>230259</t>
   </si>
   <si>
     <t>C+</t>
-  </si>
-  <si>
-    <t>230564</t>
   </si>
   <si>
     <t>230183</t>
@@ -1189,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
         <v>160</v>
@@ -1393,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P8" t="s">
         <v>165</v>
@@ -1780,16 +1780,16 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -1886,16 +1886,16 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1991,25 +1991,25 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
@@ -2029,25 +2029,25 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
@@ -2149,13 +2149,13 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
         <v>17</v>
@@ -2187,22 +2187,22 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
@@ -2231,16 +2231,16 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
@@ -2485,10 +2485,10 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -2497,7 +2497,7 @@
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
@@ -2526,7 +2526,7 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -2535,16 +2535,16 @@
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -2573,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
@@ -2582,7 +2582,7 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -2599,7 +2599,7 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -2611,13 +2611,13 @@
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -2740,7 +2740,7 @@
         <v>52</v>
       </c>
       <c r="L38">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2778,7 +2778,7 @@
         <v>14</v>
       </c>
       <c r="L39">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2816,7 +2816,7 @@
         <v>17</v>
       </c>
       <c r="L40">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2836,16 +2836,16 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J41" t="s">
         <v>14</v>
@@ -2854,7 +2854,7 @@
         <v>52</v>
       </c>
       <c r="L41">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2868,31 +2868,31 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K42" t="s">
         <v>52</v>
       </c>
       <c r="L42">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2903,39 +2903,39 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J43" t="s">
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L43">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -2950,16 +2950,16 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J44" t="s">
         <v>14</v>
@@ -2968,12 +2968,12 @@
         <v>52</v>
       </c>
       <c r="L44">
-        <v>3.96</v>
+        <v>3.9591</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -2982,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -3006,12 +3006,12 @@
         <v>52</v>
       </c>
       <c r="L45">
-        <v>3.96</v>
+        <v>3.9591</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
@@ -3023,66 +3023,66 @@
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K46" t="s">
         <v>52</v>
       </c>
       <c r="L46">
-        <v>3.96</v>
+        <v>3.9591</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J47" t="s">
         <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L47">
-        <v>3.96</v>
+        <v>3.9571</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3102,13 +3102,13 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s">
         <v>14</v>
@@ -3120,7 +3120,7 @@
         <v>17</v>
       </c>
       <c r="L48">
-        <v>3.95</v>
+        <v>3.952</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3137,33 +3137,33 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
         <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
       </c>
       <c r="L49">
-        <v>3.95</v>
+        <v>3.952</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -3178,13 +3178,13 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
         <v>14</v>
@@ -3196,12 +3196,12 @@
         <v>17</v>
       </c>
       <c r="L50">
-        <v>3.95</v>
+        <v>3.9455</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -3216,16 +3216,16 @@
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J51" t="s">
         <v>14</v>
@@ -3234,12 +3234,12 @@
         <v>17</v>
       </c>
       <c r="L51">
-        <v>3.95</v>
+        <v>3.9455</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -3251,28 +3251,28 @@
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s">
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
       </c>
       <c r="L52">
-        <v>3.95</v>
+        <v>3.9455</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3289,33 +3289,33 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
         <v>52</v>
       </c>
       <c r="L53">
-        <v>3.93</v>
+        <v>3.9318</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -3327,28 +3327,28 @@
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K54" t="s">
         <v>52</v>
       </c>
       <c r="L54">
-        <v>3.93</v>
+        <v>3.928</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3362,74 +3362,74 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L55">
-        <v>3.92</v>
+        <v>3.9182</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L56">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -3438,7 +3438,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -3447,13 +3447,13 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
@@ -3462,12 +3462,12 @@
         <v>17</v>
       </c>
       <c r="L57">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -3482,30 +3482,30 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="L58">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -3514,13 +3514,13 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
@@ -3529,21 +3529,21 @@
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L59">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -3567,21 +3567,21 @@
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="L60">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
@@ -3596,30 +3596,30 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
         <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L61">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -3628,36 +3628,36 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="L62">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
@@ -3687,10 +3687,10 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L63">
-        <v>3.92</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3728,7 +3728,7 @@
         <v>17</v>
       </c>
       <c r="L64">
-        <v>3.91</v>
+        <v>3.9143</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3763,10 +3763,10 @@
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L65">
-        <v>3.9</v>
+        <v>3.9045</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3804,7 +3804,7 @@
         <v>52</v>
       </c>
       <c r="L66">
-        <v>3.9</v>
+        <v>3.9045</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3842,7 +3842,7 @@
         <v>52</v>
       </c>
       <c r="L67">
-        <v>3.9</v>
+        <v>3.9045</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3880,7 +3880,7 @@
         <v>52</v>
       </c>
       <c r="L68">
-        <v>3.9</v>
+        <v>3.9045</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3918,7 +3918,7 @@
         <v>52</v>
       </c>
       <c r="L69">
-        <v>3.89</v>
+        <v>3.892</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3991,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="K71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L71">
         <v>3.88</v>
@@ -4008,7 +4008,7 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -4067,10 +4067,10 @@
         <v>14</v>
       </c>
       <c r="K73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L73">
-        <v>3.87</v>
+        <v>3.868</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4105,10 +4105,10 @@
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L74">
-        <v>3.87</v>
+        <v>3.868</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4146,7 +4146,7 @@
         <v>17</v>
       </c>
       <c r="L75">
-        <v>3.87</v>
+        <v>3.868</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4184,7 +4184,7 @@
         <v>86</v>
       </c>
       <c r="L76">
-        <v>3.86</v>
+        <v>3.8636</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4219,7 +4219,7 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L77">
         <v>3.85</v>
@@ -4257,7 +4257,7 @@
         <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L78">
         <v>3.85</v>
@@ -4298,7 +4298,7 @@
         <v>86</v>
       </c>
       <c r="L79">
-        <v>3.84</v>
+        <v>3.844</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4312,7 +4312,7 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -4333,10 +4333,10 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L80">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4353,28 +4353,28 @@
         <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s">
         <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="L81">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4388,16 +4388,16 @@
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F82" t="s">
         <v>52</v>
       </c>
       <c r="G82" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
@@ -4406,18 +4406,18 @@
         <v>17</v>
       </c>
       <c r="J82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K82" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="L82">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>99</v>
@@ -4426,31 +4426,31 @@
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L83">
-        <v>3.83</v>
+        <v>3.8318</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4467,33 +4467,33 @@
         <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F84" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H84" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I84" t="s">
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L84">
-        <v>3.82</v>
+        <v>3.824</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>101</v>
@@ -4505,28 +4505,28 @@
         <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="G85" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K85" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="L85">
-        <v>3.82</v>
+        <v>3.8182</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4564,7 +4564,7 @@
         <v>86</v>
       </c>
       <c r="L86">
-        <v>3.81</v>
+        <v>3.8091</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4599,10 +4599,10 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L87">
-        <v>3.8</v>
+        <v>3.796</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4625,7 +4625,7 @@
         <v>52</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
@@ -4640,7 +4640,7 @@
         <v>17</v>
       </c>
       <c r="L88">
-        <v>3.8</v>
+        <v>3.796</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4663,7 +4663,7 @@
         <v>52</v>
       </c>
       <c r="G89" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H89" t="s">
         <v>17</v>
@@ -4675,10 +4675,10 @@
         <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L89">
-        <v>3.78</v>
+        <v>3.784</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4701,7 +4701,7 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H90" t="s">
         <v>52</v>
@@ -4716,12 +4716,12 @@
         <v>86</v>
       </c>
       <c r="L90">
-        <v>3.77</v>
+        <v>3.775</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>107</v>
@@ -4736,7 +4736,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G91" t="s">
         <v>52</v>
@@ -4751,10 +4751,10 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L91">
-        <v>3.77</v>
+        <v>3.768</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4792,12 +4792,12 @@
         <v>86</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>3.7536</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>109</v>
@@ -4821,7 +4821,7 @@
         <v>52</v>
       </c>
       <c r="I93" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
@@ -4830,7 +4830,7 @@
         <v>86</v>
       </c>
       <c r="L93">
-        <v>3.75</v>
+        <v>3.748</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4844,31 +4844,31 @@
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G94" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
       </c>
       <c r="J94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L94">
-        <v>3.74</v>
+        <v>3.7364</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4888,13 +4888,13 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -4903,15 +4903,15 @@
         <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L95">
-        <v>3.74</v>
+        <v>3.7364</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>112</v>
@@ -4920,16 +4920,16 @@
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H96" t="s">
         <v>52</v>
@@ -4938,13 +4938,13 @@
         <v>17</v>
       </c>
       <c r="J96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="L96">
-        <v>3.74</v>
+        <v>3.736</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4967,7 +4967,7 @@
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H97" t="s">
         <v>52</v>
@@ -4982,7 +4982,7 @@
         <v>114</v>
       </c>
       <c r="L97">
-        <v>3.71</v>
+        <v>3.712</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5002,7 +5002,7 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G98" t="s">
         <v>52</v>
@@ -5020,7 +5020,7 @@
         <v>52</v>
       </c>
       <c r="L98">
-        <v>3.7</v>
+        <v>3.696</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5040,7 +5040,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G99" t="s">
         <v>13</v>
@@ -5058,7 +5058,7 @@
         <v>117</v>
       </c>
       <c r="L99">
-        <v>3.69</v>
+        <v>3.6947</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5084,7 +5084,7 @@
         <v>52</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
@@ -5096,7 +5096,7 @@
         <v>86</v>
       </c>
       <c r="L100">
-        <v>3.68</v>
+        <v>3.684</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5116,7 +5116,7 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -5134,7 +5134,7 @@
         <v>114</v>
       </c>
       <c r="L101">
-        <v>3.68</v>
+        <v>3.684</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5154,10 +5154,10 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G102" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
@@ -5169,10 +5169,10 @@
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L102">
-        <v>3.68</v>
+        <v>3.684</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5186,7 +5186,7 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -5195,7 +5195,7 @@
         <v>52</v>
       </c>
       <c r="G103" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H103" t="s">
         <v>17</v>
@@ -5210,7 +5210,7 @@
         <v>86</v>
       </c>
       <c r="L103">
-        <v>3.66</v>
+        <v>3.664</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5236,7 +5236,7 @@
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I104" t="s">
         <v>14</v>
@@ -5271,10 +5271,10 @@
         <v>52</v>
       </c>
       <c r="G105" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H105" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -5286,7 +5286,7 @@
         <v>86</v>
       </c>
       <c r="L105">
-        <v>3.64</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5321,10 +5321,10 @@
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L106">
-        <v>3.64</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5335,69 +5335,69 @@
         <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D107" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="L107">
-        <v>3.62</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>126</v>
       </c>
       <c r="C108" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G108" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H108" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K108" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L108">
         <v>3.62</v>
@@ -5449,7 +5449,7 @@
         <v>128</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D110" t="s">
         <v>17</v>
@@ -5458,63 +5458,63 @@
         <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="G110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s">
+        <v>52</v>
+      </c>
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" t="s">
         <v>86</v>
       </c>
-      <c r="H110" t="s">
-        <v>52</v>
-      </c>
-      <c r="I110" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" t="s">
-        <v>14</v>
-      </c>
-      <c r="K110" t="s">
-        <v>129</v>
-      </c>
       <c r="L110">
-        <v>3.57</v>
+        <v>3.5727</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>71</v>
+      </c>
+      <c r="G111" t="s">
+        <v>86</v>
+      </c>
+      <c r="H111" t="s">
+        <v>52</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" t="s">
         <v>130</v>
       </c>
-      <c r="C111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" t="s">
-        <v>114</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="s">
-        <v>52</v>
-      </c>
-      <c r="I111" t="s">
-        <v>17</v>
-      </c>
-      <c r="J111" t="s">
-        <v>14</v>
-      </c>
-      <c r="K111" t="s">
-        <v>86</v>
-      </c>
       <c r="L111">
-        <v>3.57</v>
+        <v>3.5679</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5528,19 +5528,19 @@
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G112" t="s">
         <v>52</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I112" t="s">
         <v>14</v>
@@ -5549,10 +5549,10 @@
         <v>52</v>
       </c>
       <c r="K112" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L112">
-        <v>3.54</v>
+        <v>3.536</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5572,7 +5572,7 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G113" t="s">
         <v>114</v>
@@ -5587,10 +5587,10 @@
         <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L113">
-        <v>3.53</v>
+        <v>3.528</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5613,10 +5613,10 @@
         <v>86</v>
       </c>
       <c r="G114" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H114" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I114" t="s">
         <v>52</v>
@@ -5628,7 +5628,7 @@
         <v>86</v>
       </c>
       <c r="L114">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5654,7 +5654,7 @@
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I115" t="s">
         <v>17</v>
@@ -5666,7 +5666,7 @@
         <v>114</v>
       </c>
       <c r="L115">
-        <v>3.48</v>
+        <v>3.4786</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5677,16 +5677,16 @@
         <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D116" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G116" t="s">
         <v>114</v>
@@ -5704,7 +5704,7 @@
         <v>86</v>
       </c>
       <c r="L116">
-        <v>3.32</v>
+        <v>3.3179</v>
       </c>
     </row>
   </sheetData>

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -322,6 +322,9 @@
     <t>230735</t>
   </si>
   <si>
+    <t>230218</t>
+  </si>
+  <si>
     <t>230563</t>
   </si>
   <si>
@@ -334,9 +337,6 @@
     <t>230229</t>
   </si>
   <si>
-    <t>230218</t>
-  </si>
-  <si>
     <t>230261</t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>25(31.2%)</t>
   </si>
   <si>
-    <t>57(49.6%)</t>
+    <t>58(50.4%)</t>
   </si>
   <si>
     <t>31(27.0%)</t>
@@ -487,13 +487,13 @@
     <t>15(18.8%)</t>
   </si>
   <si>
+    <t>19(16.5%)</t>
+  </si>
+  <si>
     <t>9(7.8%)</t>
   </si>
   <si>
     <t>3(2.6%)</t>
-  </si>
-  <si>
-    <t>19(16.5%)</t>
   </si>
   <si>
     <t>2(13.3%)</t>
@@ -1139,16 +1139,16 @@
         <v>156</v>
       </c>
       <c r="U4" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="V4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" t="s">
+        <v>159</v>
+      </c>
+      <c r="X4" t="s">
         <v>157</v>
-      </c>
-      <c r="W4" t="s">
-        <v>158</v>
-      </c>
-      <c r="X4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1352,7 +1352,7 @@
         <v>165</v>
       </c>
       <c r="X7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -4537,7 +4537,7 @@
         <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
@@ -4546,10 +4546,10 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
@@ -4564,7 +4564,7 @@
         <v>86</v>
       </c>
       <c r="L86">
-        <v>3.8091</v>
+        <v>3.8179</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4584,30 +4584,30 @@
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
         <v>86</v>
       </c>
-      <c r="H87" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87" t="s">
-        <v>71</v>
-      </c>
       <c r="L87">
-        <v>3.796</v>
+        <v>3.8091</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>104</v>
@@ -4616,28 +4616,28 @@
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J88" t="s">
         <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L88">
         <v>3.796</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>105</v>
@@ -4654,7 +4654,7 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -4669,16 +4669,16 @@
         <v>17</v>
       </c>
       <c r="I89" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="L89">
-        <v>3.784</v>
+        <v>3.796</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4689,7 +4689,7 @@
         <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
@@ -4698,25 +4698,25 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G90" t="s">
         <v>71</v>
       </c>
       <c r="H90" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="L90">
-        <v>3.775</v>
+        <v>3.784</v>
       </c>
     </row>
     <row r="91" spans="1:12">

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="178">
   <si>
     <t>Rank</t>
   </si>
@@ -169,15 +169,15 @@
     <t>230145</t>
   </si>
   <si>
+    <t>230436</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
     <t>230258</t>
   </si>
   <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>230436</t>
-  </si>
-  <si>
     <t>230469</t>
   </si>
   <si>
@@ -223,6 +223,9 @@
     <t>230155</t>
   </si>
   <si>
+    <t>230197</t>
+  </si>
+  <si>
     <t>230495</t>
   </si>
   <si>
@@ -280,9 +283,6 @@
     <t>230212</t>
   </si>
   <si>
-    <t>230197</t>
-  </si>
-  <si>
     <t>230727</t>
   </si>
   <si>
@@ -385,6 +385,9 @@
     <t>230730</t>
   </si>
   <si>
+    <t>230013</t>
+  </si>
+  <si>
     <t>230033</t>
   </si>
   <si>
@@ -397,9 +400,6 @@
     <t>230268</t>
   </si>
   <si>
-    <t>230013</t>
-  </si>
-  <si>
     <t>230564</t>
   </si>
   <si>
@@ -439,7 +439,7 @@
     <t>21(26.2%)</t>
   </si>
   <si>
-    <t>30(26.1%)</t>
+    <t>31(27.0%)</t>
   </si>
   <si>
     <t>73(63.5%)</t>
@@ -469,16 +469,13 @@
     <t>58(50.4%)</t>
   </si>
   <si>
-    <t>31(27.0%)</t>
-  </si>
-  <si>
     <t>37(32.2%)</t>
   </si>
   <si>
     <t>46(40.0%)</t>
   </si>
   <si>
-    <t>11(9.6%)</t>
+    <t>12(10.4%)</t>
   </si>
   <si>
     <t>1(0.9%)</t>
@@ -487,25 +484,31 @@
     <t>15(18.8%)</t>
   </si>
   <si>
+    <t>18(15.7%)</t>
+  </si>
+  <si>
+    <t>9(7.8%)</t>
+  </si>
+  <si>
+    <t>3(2.6%)</t>
+  </si>
+  <si>
     <t>19(16.5%)</t>
   </si>
   <si>
-    <t>9(7.8%)</t>
-  </si>
-  <si>
-    <t>3(2.6%)</t>
-  </si>
-  <si>
     <t>2(13.3%)</t>
   </si>
   <si>
+    <t>6(5.2%)</t>
+  </si>
+  <si>
+    <t>14(12.2%)</t>
+  </si>
+  <si>
+    <t>13(16.2%)</t>
+  </si>
+  <si>
     <t>7(6.1%)</t>
-  </si>
-  <si>
-    <t>14(12.2%)</t>
-  </si>
-  <si>
-    <t>13(16.2%)</t>
   </si>
   <si>
     <t>2(1.7%)</t>
@@ -1074,13 +1077,13 @@
         <v>150</v>
       </c>
       <c r="V3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W3" t="s">
         <v>151</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>152</v>
-      </c>
-      <c r="X3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1127,28 +1130,28 @@
         <v>136</v>
       </c>
       <c r="Q4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R4" t="s">
         <v>154</v>
-      </c>
-      <c r="R4" t="s">
-        <v>155</v>
       </c>
       <c r="S4" t="s">
         <v>139</v>
       </c>
       <c r="T4" t="s">
+        <v>155</v>
+      </c>
+      <c r="U4" t="s">
         <v>156</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>157</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>158</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>159</v>
-      </c>
-      <c r="X4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1189,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s">
         <v>160</v>
@@ -1198,7 +1201,7 @@
         <v>161</v>
       </c>
       <c r="R5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S5" t="s">
         <v>162</v>
@@ -1207,16 +1210,16 @@
         <v>163</v>
       </c>
       <c r="U5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1257,34 +1260,34 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1328,31 +1331,31 @@
         <v>114</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1396,31 +1399,31 @@
         <v>130</v>
       </c>
       <c r="P8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" t="s">
+        <v>166</v>
+      </c>
+      <c r="S8" t="s">
+        <v>166</v>
+      </c>
+      <c r="T8" t="s">
+        <v>166</v>
+      </c>
+      <c r="U8" t="s">
+        <v>166</v>
+      </c>
+      <c r="V8" t="s">
+        <v>166</v>
+      </c>
+      <c r="W8" t="s">
+        <v>166</v>
+      </c>
+      <c r="X8" t="s">
         <v>165</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>165</v>
-      </c>
-      <c r="R8" t="s">
-        <v>165</v>
-      </c>
-      <c r="S8" t="s">
-        <v>165</v>
-      </c>
-      <c r="T8" t="s">
-        <v>165</v>
-      </c>
-      <c r="U8" t="s">
-        <v>165</v>
-      </c>
-      <c r="V8" t="s">
-        <v>165</v>
-      </c>
-      <c r="W8" t="s">
-        <v>165</v>
-      </c>
-      <c r="X8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1461,34 +1464,34 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1529,34 +1532,34 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1597,34 +1600,34 @@
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1665,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1733,34 +1736,34 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1801,34 +1804,34 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2728,16 +2731,16 @@
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L38">
         <v>3.964</v>
@@ -2769,13 +2772,13 @@
         <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J39" t="s">
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="L39">
         <v>3.964</v>
@@ -3353,7 +3356,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>69</v>
@@ -3371,22 +3374,22 @@
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s">
         <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="L55">
-        <v>3.9182</v>
+        <v>3.928</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3400,66 +3403,66 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L56">
-        <v>3.916</v>
+        <v>3.9182</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L57">
         <v>3.916</v>
@@ -3467,7 +3470,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -3476,7 +3479,7 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -3485,13 +3488,13 @@
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
@@ -3505,7 +3508,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -3520,22 +3523,22 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="L59">
         <v>3.916</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -3552,13 +3555,13 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
@@ -3567,13 +3570,13 @@
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="L60">
         <v>3.916</v>
@@ -3581,7 +3584,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
@@ -3605,13 +3608,13 @@
         <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="L61">
         <v>3.916</v>
@@ -3619,7 +3622,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -3634,22 +3637,22 @@
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L62">
         <v>3.916</v>
@@ -3657,7 +3660,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
@@ -3672,22 +3675,22 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K63" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="L63">
         <v>3.916</v>
@@ -3695,13 +3698,13 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -3710,13 +3713,13 @@
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -3725,10 +3728,10 @@
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L64">
-        <v>3.9143</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3739,39 +3742,39 @@
         <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="L65">
-        <v>3.9045</v>
+        <v>3.9143</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>81</v>
@@ -3780,28 +3783,28 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L66">
         <v>3.9045</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
@@ -3824,19 +3827,19 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K67" t="s">
         <v>52</v>
@@ -3847,7 +3850,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -3885,7 +3888,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
@@ -3903,22 +3906,22 @@
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K69" t="s">
         <v>52</v>
       </c>
       <c r="L69">
-        <v>3.892</v>
+        <v>3.9045</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3941,57 +3944,57 @@
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J70" t="s">
         <v>14</v>
       </c>
       <c r="K70" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="L70">
-        <v>3.88</v>
+        <v>3.892</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
         <v>87</v>
-      </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" t="s">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" t="s">
-        <v>71</v>
       </c>
       <c r="L71">
         <v>3.88</v>
@@ -3999,7 +4002,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
@@ -4008,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -4020,16 +4023,16 @@
         <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s">
         <v>52</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K72" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="L72">
         <v>3.88</v>
@@ -4067,7 +4070,7 @@
         <v>14</v>
       </c>
       <c r="K73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L73">
         <v>3.868</v>
@@ -4105,7 +4108,7 @@
         <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L74">
         <v>3.868</v>
@@ -4181,7 +4184,7 @@
         <v>14</v>
       </c>
       <c r="K76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L76">
         <v>3.8636</v>
@@ -4219,7 +4222,7 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L77">
         <v>3.85</v>
@@ -4257,7 +4260,7 @@
         <v>17</v>
       </c>
       <c r="K78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L78">
         <v>3.85</v>
@@ -4295,7 +4298,7 @@
         <v>14</v>
       </c>
       <c r="K79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L79">
         <v>3.844</v>
@@ -4312,7 +4315,7 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -4333,7 +4336,7 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L80">
         <v>3.832</v>
@@ -4371,7 +4374,7 @@
         <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L81">
         <v>3.832</v>
@@ -4397,7 +4400,7 @@
         <v>52</v>
       </c>
       <c r="G82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
@@ -4432,7 +4435,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G83" t="s">
         <v>13</v>
@@ -4467,7 +4470,7 @@
         <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -4485,7 +4488,7 @@
         <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L84">
         <v>3.824</v>
@@ -4508,7 +4511,7 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G85" t="s">
         <v>13</v>
@@ -4549,7 +4552,7 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
@@ -4561,7 +4564,7 @@
         <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L86">
         <v>3.8179</v>
@@ -4599,7 +4602,7 @@
         <v>14</v>
       </c>
       <c r="K87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L87">
         <v>3.8091</v>
@@ -4625,7 +4628,7 @@
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
@@ -4637,7 +4640,7 @@
         <v>17</v>
       </c>
       <c r="K88" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L88">
         <v>3.796</v>
@@ -4663,7 +4666,7 @@
         <v>52</v>
       </c>
       <c r="G89" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H89" t="s">
         <v>17</v>
@@ -4701,7 +4704,7 @@
         <v>52</v>
       </c>
       <c r="G90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
@@ -4713,7 +4716,7 @@
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L90">
         <v>3.784</v>
@@ -4736,7 +4739,7 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G91" t="s">
         <v>52</v>
@@ -4751,7 +4754,7 @@
         <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L91">
         <v>3.768</v>
@@ -4789,7 +4792,7 @@
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L92">
         <v>3.7536</v>
@@ -4821,13 +4824,13 @@
         <v>52</v>
       </c>
       <c r="I93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L93">
         <v>3.748</v>
@@ -4850,7 +4853,7 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G94" t="s">
         <v>13</v>
@@ -4865,7 +4868,7 @@
         <v>14</v>
       </c>
       <c r="K94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L94">
         <v>3.7364</v>
@@ -4888,7 +4891,7 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
@@ -4929,7 +4932,7 @@
         <v>52</v>
       </c>
       <c r="G96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H96" t="s">
         <v>52</v>
@@ -4941,7 +4944,7 @@
         <v>17</v>
       </c>
       <c r="K96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L96">
         <v>3.736</v>
@@ -4967,7 +4970,7 @@
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H97" t="s">
         <v>52</v>
@@ -5002,7 +5005,7 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G98" t="s">
         <v>52</v>
@@ -5040,7 +5043,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G99" t="s">
         <v>13</v>
@@ -5084,7 +5087,7 @@
         <v>52</v>
       </c>
       <c r="H100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
@@ -5093,7 +5096,7 @@
         <v>14</v>
       </c>
       <c r="K100" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L100">
         <v>3.684</v>
@@ -5116,7 +5119,7 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -5154,10 +5157,10 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
@@ -5169,7 +5172,7 @@
         <v>17</v>
       </c>
       <c r="K102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L102">
         <v>3.684</v>
@@ -5186,7 +5189,7 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -5195,7 +5198,7 @@
         <v>52</v>
       </c>
       <c r="G103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H103" t="s">
         <v>17</v>
@@ -5207,7 +5210,7 @@
         <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L103">
         <v>3.664</v>
@@ -5230,13 +5233,13 @@
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I104" t="s">
         <v>14</v>
@@ -5265,33 +5268,33 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G105" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="H105" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K105" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="L105">
-        <v>3.636</v>
+        <v>3.648</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>124</v>
@@ -5306,22 +5309,22 @@
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="G106" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H106" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J106" t="s">
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="L106">
         <v>3.636</v>
@@ -5329,28 +5332,28 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>125</v>
       </c>
       <c r="C107" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G107" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H107" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I107" t="s">
         <v>52</v>
@@ -5359,10 +5362,10 @@
         <v>17</v>
       </c>
       <c r="K107" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L107">
-        <v>3.625</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5373,34 +5376,34 @@
         <v>126</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D108" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G108" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H108" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J108" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K108" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L108">
-        <v>3.62</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5414,19 +5417,19 @@
         <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G109" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="H109" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -5438,7 +5441,7 @@
         <v>52</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5473,7 +5476,7 @@
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L110">
         <v>3.5727</v>
@@ -5496,10 +5499,10 @@
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H111" t="s">
         <v>52</v>
@@ -5528,19 +5531,19 @@
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G112" t="s">
         <v>52</v>
       </c>
       <c r="H112" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I112" t="s">
         <v>14</v>
@@ -5549,7 +5552,7 @@
         <v>52</v>
       </c>
       <c r="K112" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L112">
         <v>3.536</v>
@@ -5572,7 +5575,7 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G113" t="s">
         <v>114</v>
@@ -5610,13 +5613,13 @@
         <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G114" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H114" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I114" t="s">
         <v>52</v>
@@ -5625,7 +5628,7 @@
         <v>17</v>
       </c>
       <c r="K114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L114">
         <v>3.488</v>
@@ -5648,13 +5651,13 @@
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G115" t="s">
         <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I115" t="s">
         <v>17</v>
@@ -5677,16 +5680,16 @@
         <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G116" t="s">
         <v>114</v>
@@ -5701,7 +5704,7 @@
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L116">
         <v>3.3179</v>

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="175">
   <si>
     <t>Rank</t>
   </si>
@@ -85,283 +85,319 @@
     <t>230470</t>
   </si>
   <si>
+    <t>230082</t>
+  </si>
+  <si>
+    <t>230486</t>
+  </si>
+  <si>
+    <t>230121</t>
+  </si>
+  <si>
     <t>230539</t>
   </si>
   <si>
-    <t>230082</t>
-  </si>
-  <si>
-    <t>230486</t>
-  </si>
-  <si>
-    <t>230121</t>
-  </si>
-  <si>
     <t>230256</t>
   </si>
   <si>
     <t>230355</t>
   </si>
   <si>
+    <t>230108</t>
+  </si>
+  <si>
+    <t>230300</t>
+  </si>
+  <si>
+    <t>230352</t>
+  </si>
+  <si>
     <t>230566</t>
   </si>
   <si>
-    <t>230108</t>
-  </si>
-  <si>
-    <t>230300</t>
-  </si>
-  <si>
-    <t>230352</t>
-  </si>
-  <si>
     <t>230481</t>
   </si>
   <si>
+    <t>230508</t>
+  </si>
+  <si>
     <t>230051</t>
   </si>
   <si>
     <t>230487</t>
   </si>
   <si>
+    <t>230186</t>
+  </si>
+  <si>
+    <t>230544</t>
+  </si>
+  <si>
+    <t>230100</t>
+  </si>
+  <si>
     <t>230689</t>
   </si>
   <si>
-    <t>230186</t>
-  </si>
-  <si>
-    <t>230100</t>
-  </si>
-  <si>
-    <t>230508</t>
-  </si>
-  <si>
     <t>230390</t>
   </si>
   <si>
+    <t>230138</t>
+  </si>
+  <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
     <t>230521</t>
   </si>
   <si>
     <t>230525</t>
   </si>
   <si>
-    <t>230544</t>
+    <t>230332</t>
+  </si>
+  <si>
+    <t>230680</t>
+  </si>
+  <si>
+    <t>230145</t>
+  </si>
+  <si>
+    <t>230436</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>230258</t>
+  </si>
+  <si>
+    <t>230469</t>
+  </si>
+  <si>
+    <t>230536</t>
+  </si>
+  <si>
+    <t>230353</t>
+  </si>
+  <si>
+    <t>230585</t>
   </si>
   <si>
     <t>230697</t>
   </si>
   <si>
-    <t>230138</t>
-  </si>
-  <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>230332</t>
-  </si>
-  <si>
-    <t>230680</t>
-  </si>
-  <si>
-    <t>230145</t>
-  </si>
-  <si>
-    <t>230436</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>230258</t>
-  </si>
-  <si>
-    <t>230469</t>
-  </si>
-  <si>
-    <t>230353</t>
-  </si>
-  <si>
     <t>230140</t>
   </si>
   <si>
     <t>230130</t>
   </si>
   <si>
-    <t>230536</t>
+    <t>230159</t>
+  </si>
+  <si>
+    <t>230502</t>
+  </si>
+  <si>
+    <t>230613</t>
+  </si>
+  <si>
+    <t>230321</t>
+  </si>
+  <si>
+    <t>230526</t>
+  </si>
+  <si>
+    <t>230017</t>
+  </si>
+  <si>
+    <t>230687</t>
+  </si>
+  <si>
+    <t>230155</t>
+  </si>
+  <si>
+    <t>230197</t>
+  </si>
+  <si>
+    <t>230492</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>230045</t>
+  </si>
+  <si>
+    <t>230063</t>
+  </si>
+  <si>
+    <t>230473</t>
+  </si>
+  <si>
+    <t>230322</t>
+  </si>
+  <si>
+    <t>230417</t>
+  </si>
+  <si>
+    <t>230280</t>
+  </si>
+  <si>
+    <t>230058</t>
+  </si>
+  <si>
+    <t>230500</t>
+  </si>
+  <si>
+    <t>230629</t>
+  </si>
+  <si>
+    <t>230016</t>
+  </si>
+  <si>
+    <t>230211</t>
+  </si>
+  <si>
+    <t>230507</t>
+  </si>
+  <si>
+    <t>230724</t>
+  </si>
+  <si>
+    <t>230164</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
   <si>
     <t>230659</t>
   </si>
   <si>
-    <t>230585</t>
-  </si>
-  <si>
-    <t>230159</t>
-  </si>
-  <si>
-    <t>230321</t>
-  </si>
-  <si>
-    <t>230017</t>
-  </si>
-  <si>
-    <t>230502</t>
-  </si>
-  <si>
-    <t>230613</t>
-  </si>
-  <si>
-    <t>230526</t>
-  </si>
-  <si>
-    <t>230687</t>
-  </si>
-  <si>
-    <t>230155</t>
-  </si>
-  <si>
-    <t>230197</t>
+    <t>230212</t>
+  </si>
+  <si>
+    <t>230726</t>
+  </si>
+  <si>
+    <t>230020</t>
+  </si>
+  <si>
+    <t>230654</t>
+  </si>
+  <si>
+    <t>230727</t>
+  </si>
+  <si>
+    <t>230052</t>
+  </si>
+  <si>
+    <t>230065</t>
+  </si>
+  <si>
+    <t>230527</t>
   </si>
   <si>
     <t>230495</t>
   </si>
   <si>
-    <t>230492</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>230045</t>
-  </si>
-  <si>
-    <t>230063</t>
-  </si>
-  <si>
-    <t>230473</t>
-  </si>
-  <si>
-    <t>230322</t>
-  </si>
-  <si>
-    <t>230417</t>
-  </si>
-  <si>
-    <t>230280</t>
-  </si>
-  <si>
-    <t>230058</t>
-  </si>
-  <si>
-    <t>230016</t>
-  </si>
-  <si>
-    <t>230724</t>
-  </si>
-  <si>
-    <t>230726</t>
-  </si>
-  <si>
-    <t>230500</t>
-  </si>
-  <si>
-    <t>230629</t>
-  </si>
-  <si>
-    <t>230211</t>
-  </si>
-  <si>
-    <t>230164</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>230212</t>
-  </si>
-  <si>
-    <t>230727</t>
-  </si>
-  <si>
-    <t>230507</t>
-  </si>
-  <si>
-    <t>230020</t>
-  </si>
-  <si>
-    <t>230527</t>
+    <t>230477</t>
+  </si>
+  <si>
+    <t>230180</t>
+  </si>
+  <si>
+    <t>230147</t>
+  </si>
+  <si>
+    <t>230070</t>
+  </si>
+  <si>
+    <t>230218</t>
+  </si>
+  <si>
+    <t>230735</t>
+  </si>
+  <si>
+    <t>230012</t>
+  </si>
+  <si>
+    <t>230195</t>
+  </si>
+  <si>
+    <t>230229</t>
+  </si>
+  <si>
+    <t>230261</t>
+  </si>
+  <si>
+    <t>230077</t>
+  </si>
+  <si>
+    <t>230563</t>
   </si>
   <si>
     <t>230520</t>
   </si>
   <si>
-    <t>230052</t>
-  </si>
-  <si>
-    <t>230065</t>
-  </si>
-  <si>
-    <t>230477</t>
-  </si>
-  <si>
-    <t>230180</t>
-  </si>
-  <si>
-    <t>230147</t>
-  </si>
-  <si>
-    <t>230654</t>
-  </si>
-  <si>
-    <t>230070</t>
-  </si>
-  <si>
-    <t>230735</t>
-  </si>
-  <si>
-    <t>230218</t>
-  </si>
-  <si>
-    <t>230563</t>
-  </si>
-  <si>
-    <t>230012</t>
-  </si>
-  <si>
-    <t>230195</t>
-  </si>
-  <si>
-    <t>230229</t>
-  </si>
-  <si>
-    <t>230261</t>
-  </si>
-  <si>
-    <t>230077</t>
-  </si>
-  <si>
     <t>230407</t>
   </si>
   <si>
+    <t>230458</t>
+  </si>
+  <si>
+    <t>230650</t>
+  </si>
+  <si>
+    <t>230375</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>230175</t>
+  </si>
+  <si>
+    <t>230327</t>
+  </si>
+  <si>
+    <t>230395</t>
+  </si>
+  <si>
+    <t>230248</t>
+  </si>
+  <si>
+    <t>230730</t>
+  </si>
+  <si>
+    <t>230013</t>
+  </si>
+  <si>
+    <t>230581</t>
+  </si>
+  <si>
+    <t>230033</t>
+  </si>
+  <si>
+    <t>230208</t>
+  </si>
+  <si>
+    <t>230444</t>
+  </si>
+  <si>
+    <t>230268</t>
+  </si>
+  <si>
     <t>230636</t>
   </si>
   <si>
-    <t>230650</t>
-  </si>
-  <si>
-    <t>230458</t>
-  </si>
-  <si>
-    <t>230375</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>230175</t>
+    <t>230259</t>
+  </si>
+  <si>
+    <t>C+</t>
   </si>
   <si>
     <t>230493</t>
@@ -370,57 +406,21 @@
     <t>I-we</t>
   </si>
   <si>
-    <t>230327</t>
-  </si>
-  <si>
-    <t>230581</t>
-  </si>
-  <si>
-    <t>230395</t>
-  </si>
-  <si>
-    <t>230248</t>
-  </si>
-  <si>
-    <t>230730</t>
-  </si>
-  <si>
-    <t>230013</t>
-  </si>
-  <si>
-    <t>230033</t>
-  </si>
-  <si>
-    <t>230208</t>
-  </si>
-  <si>
-    <t>230444</t>
-  </si>
-  <si>
-    <t>230268</t>
+    <t>230183</t>
+  </si>
+  <si>
+    <t>230224</t>
+  </si>
+  <si>
+    <t>230203</t>
+  </si>
+  <si>
+    <t>230238</t>
   </si>
   <si>
     <t>230564</t>
   </si>
   <si>
-    <t>230259</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>230183</t>
-  </si>
-  <si>
-    <t>230224</t>
-  </si>
-  <si>
-    <t>230203</t>
-  </si>
-  <si>
-    <t>230238</t>
-  </si>
-  <si>
     <t>230449</t>
   </si>
   <si>
@@ -436,7 +436,7 @@
     <t>23(20.0%)</t>
   </si>
   <si>
-    <t>21(26.2%)</t>
+    <t>24(20.9%)</t>
   </si>
   <si>
     <t>31(27.0%)</t>
@@ -463,7 +463,7 @@
     <t>49(42.6%)</t>
   </si>
   <si>
-    <t>25(31.2%)</t>
+    <t>41(35.7%)</t>
   </si>
   <si>
     <t>58(50.4%)</t>
@@ -481,9 +481,6 @@
     <t>1(0.9%)</t>
   </si>
   <si>
-    <t>15(18.8%)</t>
-  </si>
-  <si>
     <t>18(15.7%)</t>
   </si>
   <si>
@@ -505,7 +502,7 @@
     <t>14(12.2%)</t>
   </si>
   <si>
-    <t>13(16.2%)</t>
+    <t>17(14.8%)</t>
   </si>
   <si>
     <t>7(6.1%)</t>
@@ -523,13 +520,7 @@
     <t>5(4.3%)</t>
   </si>
   <si>
-    <t>2(2.5%)</t>
-  </si>
-  <si>
     <t>13(11.3%)</t>
-  </si>
-  <si>
-    <t>4(5.0%)</t>
   </si>
   <si>
     <t>C</t>
@@ -1124,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
         <v>136</v>
@@ -1139,19 +1130,19 @@
         <v>139</v>
       </c>
       <c r="T4" t="s">
+        <v>139</v>
+      </c>
+      <c r="U4" t="s">
         <v>155</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>156</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>157</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>158</v>
-      </c>
-      <c r="X4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1192,34 +1183,34 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q5" t="s">
         <v>160</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>161</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
       <c r="S5" t="s">
+        <v>161</v>
+      </c>
+      <c r="T5" t="s">
         <v>162</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>163</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>164</v>
       </c>
-      <c r="V5" t="s">
-        <v>165</v>
-      </c>
       <c r="W5" t="s">
+        <v>165</v>
+      </c>
+      <c r="X5" t="s">
         <v>166</v>
-      </c>
-      <c r="X5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1260,34 +1251,34 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S6" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" t="s">
+        <v>157</v>
+      </c>
+      <c r="U6" t="s">
+        <v>165</v>
+      </c>
+      <c r="V6" t="s">
+        <v>165</v>
+      </c>
+      <c r="W6" t="s">
+        <v>165</v>
+      </c>
+      <c r="X6" t="s">
         <v>168</v>
-      </c>
-      <c r="T6" t="s">
-        <v>169</v>
-      </c>
-      <c r="U6" t="s">
-        <v>166</v>
-      </c>
-      <c r="V6" t="s">
-        <v>166</v>
-      </c>
-      <c r="W6" t="s">
-        <v>166</v>
-      </c>
-      <c r="X6" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1328,34 +1319,34 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S7" t="s">
         <v>154</v>
       </c>
       <c r="T7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="U7" t="s">
         <v>154</v>
       </c>
       <c r="V7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1378,7 +1369,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1396,34 +1387,34 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1464,34 +1455,34 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1511,16 +1502,16 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -1532,34 +1523,34 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1582,13 +1573,13 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -1600,34 +1591,34 @@
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1647,19 +1638,19 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
@@ -1668,34 +1659,34 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1718,7 +1709,7 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1727,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -1736,34 +1727,34 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1804,34 +1795,34 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1880,7 +1871,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1892,16 +1883,16 @@
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
@@ -1918,31 +1909,31 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -1959,28 +1950,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L18">
         <v>4</v>
@@ -2079,13 +2070,13 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -2120,13 +2111,13 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -2152,16 +2143,16 @@
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -2228,22 +2219,22 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
@@ -2266,22 +2257,22 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
@@ -2307,13 +2298,13 @@
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s">
         <v>14</v>
@@ -2342,16 +2333,16 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
         <v>14</v>
@@ -2377,7 +2368,7 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -2386,13 +2377,13 @@
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -2424,7 +2415,7 @@
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
@@ -2433,7 +2424,7 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
@@ -2462,7 +2453,7 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -2471,10 +2462,10 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L31">
         <v>4</v>
@@ -2491,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -2506,7 +2497,7 @@
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
@@ -2538,7 +2529,7 @@
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
@@ -2547,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -2564,7 +2555,7 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -2576,13 +2567,13 @@
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
@@ -2602,25 +2593,25 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -2652,13 +2643,13 @@
         <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -2672,7 +2663,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -2684,36 +2675,36 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2731,16 +2722,16 @@
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="L38">
         <v>3.964</v>
@@ -2748,7 +2739,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -2757,7 +2748,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -2778,7 +2769,7 @@
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="L39">
         <v>3.964</v>
@@ -2786,7 +2777,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -2795,7 +2786,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -2804,7 +2795,7 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s">
         <v>17</v>
@@ -2816,7 +2807,7 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L40">
         <v>3.964</v>
@@ -2824,7 +2815,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -2854,7 +2845,7 @@
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L41">
         <v>3.964</v>
@@ -2862,7 +2853,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -2874,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2883,16 +2874,16 @@
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L42">
         <v>3.964</v>
@@ -2900,7 +2891,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -2912,25 +2903,25 @@
         <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s">
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
         <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L43">
         <v>3.964</v>
@@ -2938,7 +2929,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -2950,33 +2941,33 @@
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L44">
-        <v>3.9591</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -2985,42 +2976,42 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s">
         <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="L45">
-        <v>3.9591</v>
+        <v>3.964</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -3029,25 +3020,25 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L46">
-        <v>3.9591</v>
+        <v>3.9571</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3058,7 +3049,7 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -3067,7 +3058,7 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -3079,18 +3070,18 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L47">
-        <v>3.9571</v>
+        <v>3.952</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -3105,16 +3096,16 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
       </c>
       <c r="H48" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J48" t="s">
         <v>14</v>
@@ -3128,7 +3119,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
@@ -3140,22 +3131,22 @@
         <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I49" t="s">
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
@@ -3166,7 +3157,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -3181,13 +3172,13 @@
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I50" t="s">
         <v>14</v>
@@ -3199,12 +3190,12 @@
         <v>17</v>
       </c>
       <c r="L50">
-        <v>3.9455</v>
+        <v>3.952</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -3216,33 +3207,33 @@
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
       <c r="L51">
-        <v>3.9455</v>
+        <v>3.952</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -3254,28 +3245,28 @@
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K52" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L52">
-        <v>3.9455</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3292,33 +3283,33 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L53">
-        <v>3.9318</v>
+        <v>3.928</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -3327,28 +3318,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="L54">
         <v>3.928</v>
@@ -3356,7 +3347,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>69</v>
@@ -3365,13 +3356,13 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -3380,30 +3371,30 @@
         <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L55">
-        <v>3.928</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -3412,7 +3403,7 @@
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -3421,39 +3412,39 @@
         <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="L56">
-        <v>3.9182</v>
+        <v>3.916</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I57" t="s">
         <v>14</v>
@@ -3462,7 +3453,7 @@
         <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="L57">
         <v>3.916</v>
@@ -3470,7 +3461,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -3479,19 +3470,19 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
@@ -3500,7 +3491,7 @@
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L58">
         <v>3.916</v>
@@ -3508,7 +3499,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -3517,7 +3508,7 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -3526,7 +3517,7 @@
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
@@ -3538,7 +3529,7 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L59">
         <v>3.916</v>
@@ -3546,7 +3537,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -3555,13 +3546,13 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
@@ -3570,13 +3561,13 @@
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="L60">
         <v>3.916</v>
@@ -3584,7 +3575,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
@@ -3599,10 +3590,10 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s">
         <v>17</v>
@@ -3614,7 +3605,7 @@
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="L61">
         <v>3.916</v>
@@ -3622,7 +3613,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -3646,13 +3637,13 @@
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="J62" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="L62">
         <v>3.916</v>
@@ -3660,7 +3651,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
@@ -3675,22 +3666,22 @@
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L63">
         <v>3.916</v>
@@ -3698,7 +3689,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
@@ -3719,7 +3710,7 @@
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -3728,7 +3719,7 @@
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L64">
         <v>3.916</v>
@@ -3751,13 +3742,13 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -3783,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -3792,33 +3783,33 @@
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J66" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L66">
-        <v>3.9045</v>
+        <v>3.892</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
@@ -3827,30 +3818,30 @@
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s">
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K67" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="L67">
-        <v>3.9045</v>
+        <v>3.8821</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -3859,7 +3850,7 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -3868,27 +3859,27 @@
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J68" t="s">
         <v>17</v>
       </c>
       <c r="K68" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="L68">
-        <v>3.9045</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
@@ -3906,36 +3897,36 @@
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K69" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="L69">
-        <v>3.9045</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -3944,36 +3935,36 @@
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H70" t="s">
         <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J70" t="s">
         <v>14</v>
       </c>
       <c r="K70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L70">
-        <v>3.892</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -3985,16 +3976,16 @@
         <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J71" t="s">
         <v>14</v>
       </c>
       <c r="K71" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L71">
         <v>3.88</v>
@@ -4002,7 +3993,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
@@ -4011,28 +4002,28 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J72" t="s">
         <v>14</v>
       </c>
       <c r="K72" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L72">
         <v>3.88</v>
@@ -4046,7 +4037,7 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
@@ -4055,22 +4046,22 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="L73">
         <v>3.868</v>
@@ -4078,51 +4069,51 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I74" t="s">
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K74" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L74">
-        <v>3.868</v>
+        <v>3.852</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -4131,36 +4122,36 @@
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L75">
-        <v>3.868</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
@@ -4169,25 +4160,25 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s">
         <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J76" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L76">
-        <v>3.8636</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4207,10 +4198,10 @@
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s">
         <v>17</v>
@@ -4222,10 +4213,10 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L77">
-        <v>3.85</v>
+        <v>3.844</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4236,7 +4227,7 @@
         <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -4245,30 +4236,30 @@
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K78" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L78">
-        <v>3.85</v>
+        <v>3.844</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>95</v>
@@ -4277,7 +4268,7 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -4286,19 +4277,19 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K79" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="L79">
         <v>3.844</v>
@@ -4315,7 +4306,7 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -4336,7 +4327,7 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L80">
         <v>3.832</v>
@@ -4359,10 +4350,10 @@
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
@@ -4374,7 +4365,7 @@
         <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L81">
         <v>3.832</v>
@@ -4391,16 +4382,16 @@
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
@@ -4432,13 +4423,13 @@
         <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F83" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
@@ -4447,13 +4438,13 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="L83">
-        <v>3.8318</v>
+        <v>3.824</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4464,19 +4455,19 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H84" t="s">
         <v>17</v>
@@ -4485,13 +4476,13 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L84">
-        <v>3.824</v>
+        <v>3.8179</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4511,13 +4502,13 @@
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I85" t="s">
         <v>14</v>
@@ -4529,7 +4520,7 @@
         <v>17</v>
       </c>
       <c r="L85">
-        <v>3.8182</v>
+        <v>3.804</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4540,7 +4531,7 @@
         <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
@@ -4552,7 +4543,7 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
@@ -4561,18 +4552,18 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K86" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L86">
-        <v>3.8179</v>
+        <v>3.796</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>103</v>
@@ -4581,31 +4572,31 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J87" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="L87">
-        <v>3.8091</v>
+        <v>3.796</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4625,30 +4616,30 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L88">
-        <v>3.796</v>
+        <v>3.784</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>105</v>
@@ -4657,31 +4648,31 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G89" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H89" t="s">
         <v>17</v>
       </c>
       <c r="I89" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J89" t="s">
         <v>17</v>
       </c>
       <c r="K89" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L89">
-        <v>3.796</v>
+        <v>3.768</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4692,34 +4683,34 @@
         <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L90">
-        <v>3.784</v>
+        <v>3.7536</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4739,10 +4730,10 @@
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H91" t="s">
         <v>17</v>
@@ -4751,36 +4742,36 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L91">
-        <v>3.768</v>
+        <v>3.748</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>108</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
@@ -4792,15 +4783,15 @@
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L92">
-        <v>3.7536</v>
+        <v>3.748</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
         <v>109</v>
@@ -4821,16 +4812,16 @@
         <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I93" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L93">
         <v>3.748</v>
@@ -4847,36 +4838,36 @@
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H94" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
       </c>
       <c r="J94" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L94">
-        <v>3.7364</v>
+        <v>3.736</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>111</v>
@@ -4885,19 +4876,19 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -4906,10 +4897,10 @@
         <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L95">
-        <v>3.7364</v>
+        <v>3.732</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4923,31 +4914,31 @@
         <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I96" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K96" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="L96">
-        <v>3.736</v>
+        <v>3.712</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4955,7 +4946,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -4967,25 +4958,25 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G97" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J97" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="K97" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="L97">
-        <v>3.712</v>
+        <v>3.696</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5005,30 +4996,30 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H98" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I98" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="K98" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="L98">
-        <v>3.696</v>
+        <v>3.684</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>116</v>
@@ -5037,31 +5028,31 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E99" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H99" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I99" t="s">
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="L99">
-        <v>3.6947</v>
+        <v>3.684</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5069,98 +5060,98 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G100" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H100" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I100" t="s">
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L100">
-        <v>3.684</v>
+        <v>3.664</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="H101" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K101" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="L101">
-        <v>3.684</v>
+        <v>3.656</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G102" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
@@ -5169,13 +5160,13 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K102" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L102">
-        <v>3.684</v>
+        <v>3.648</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5183,25 +5174,25 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G103" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H103" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I103" t="s">
         <v>14</v>
@@ -5210,10 +5201,10 @@
         <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="L103">
-        <v>3.664</v>
+        <v>3.6429</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5221,45 +5212,45 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H104" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="L104">
-        <v>3.65</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -5268,28 +5259,28 @@
         <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G105" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="H105" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I105" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="L105">
-        <v>3.648</v>
+        <v>3.636</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5297,75 +5288,75 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G106" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H106" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I106" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J106" t="s">
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L106">
-        <v>3.636</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G107" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H107" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L107">
-        <v>3.636</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5373,37 +5364,37 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C108" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G108" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="H108" t="s">
         <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J108" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K108" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L108">
-        <v>3.625</v>
+        <v>3.612</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5411,37 +5402,37 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" t="s">
+        <v>70</v>
+      </c>
+      <c r="G109" t="s">
+        <v>85</v>
+      </c>
+      <c r="H109" t="s">
+        <v>51</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s">
         <v>127</v>
       </c>
-      <c r="C109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" t="s">
-        <v>52</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" t="s">
-        <v>72</v>
-      </c>
-      <c r="G109" t="s">
-        <v>72</v>
-      </c>
-      <c r="H109" t="s">
-        <v>72</v>
-      </c>
-      <c r="I109" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109" t="s">
-        <v>14</v>
-      </c>
-      <c r="K109" t="s">
-        <v>52</v>
-      </c>
       <c r="L109">
-        <v>3.62</v>
+        <v>3.5679</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5455,31 +5446,31 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="H110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I110" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="K110" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="L110">
-        <v>3.5727</v>
+        <v>3.5591</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5487,37 +5478,37 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G111" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="H111" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="I111" t="s">
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="K111" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="L111">
-        <v>3.5679</v>
+        <v>3.536</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5531,31 +5522,31 @@
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G112" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="H112" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="I112" t="s">
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="L112">
-        <v>3.536</v>
+        <v>3.528</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5569,31 +5560,31 @@
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G113" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="H113" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J113" t="s">
         <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="L113">
-        <v>3.528</v>
+        <v>3.488</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5604,34 +5595,34 @@
         <v>133</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G114" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J114" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K114" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="L114">
-        <v>3.488</v>
+        <v>3.4786</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5642,7 +5633,7 @@
         <v>134</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
@@ -5651,13 +5642,13 @@
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="G115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H115" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I115" t="s">
         <v>17</v>
@@ -5666,10 +5657,10 @@
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="L115">
-        <v>3.4786</v>
+        <v>3.468</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5680,22 +5671,22 @@
         <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I116" t="s">
         <v>14</v>
@@ -5704,7 +5695,7 @@
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L116">
         <v>3.3179</v>

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\CGPA-gen\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95791C58-AE6B-4BE6-BC8A-00A9EA784403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4284" yWindow="3900" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="176">
   <si>
     <t>Rank</t>
   </si>
@@ -259,6 +265,9 @@
     <t>230016</t>
   </si>
   <si>
+    <t>230727</t>
+  </si>
+  <si>
     <t>230211</t>
   </si>
   <si>
@@ -289,9 +298,6 @@
     <t>230654</t>
   </si>
   <si>
-    <t>230727</t>
-  </si>
-  <si>
     <t>230052</t>
   </si>
   <si>
@@ -460,7 +466,7 @@
     <t>16(13.9%)</t>
   </si>
   <si>
-    <t>49(42.6%)</t>
+    <t>50(43.5%)</t>
   </si>
   <si>
     <t>41(35.7%)</t>
@@ -479,6 +485,9 @@
   </si>
   <si>
     <t>1(0.9%)</t>
+  </si>
+  <si>
+    <t>22(19.1%)</t>
   </si>
   <si>
     <t>18(15.7%)</t>
@@ -544,8 +553,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,13 +591,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -626,7 +643,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -660,6 +677,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -694,9 +712,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -869,14 +888,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1009,7 +1031,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1077,7 +1099,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1127,25 +1149,25 @@
         <v>154</v>
       </c>
       <c r="S4" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="T4" t="s">
         <v>139</v>
       </c>
       <c r="U4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1186,34 +1208,34 @@
         <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R5" t="s">
         <v>154</v>
       </c>
       <c r="S5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="W5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1251,37 +1273,37 @@
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1322,34 +1344,34 @@
         <v>113</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S7" t="s">
         <v>154</v>
       </c>
       <c r="T7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U7" t="s">
         <v>154</v>
       </c>
       <c r="V7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1390,34 +1412,34 @@
         <v>127</v>
       </c>
       <c r="P8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" t="s">
+        <v>166</v>
+      </c>
+      <c r="S8" t="s">
+        <v>166</v>
+      </c>
+      <c r="T8" t="s">
+        <v>166</v>
+      </c>
+      <c r="U8" t="s">
+        <v>166</v>
+      </c>
+      <c r="V8" t="s">
+        <v>166</v>
+      </c>
+      <c r="W8" t="s">
+        <v>166</v>
+      </c>
+      <c r="X8" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" t="s">
-        <v>165</v>
-      </c>
-      <c r="R8" t="s">
-        <v>165</v>
-      </c>
-      <c r="S8" t="s">
-        <v>165</v>
-      </c>
-      <c r="T8" t="s">
-        <v>165</v>
-      </c>
-      <c r="U8" t="s">
-        <v>165</v>
-      </c>
-      <c r="V8" t="s">
-        <v>165</v>
-      </c>
-      <c r="W8" t="s">
-        <v>165</v>
-      </c>
-      <c r="X8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1455,37 +1477,37 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1523,37 +1545,37 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1591,37 +1613,37 @@
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1659,37 +1681,37 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1727,37 +1749,37 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1795,37 +1817,37 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1863,7 +1885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1901,7 +1923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1939,7 +1961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1977,7 +1999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2015,7 +2037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2053,7 +2075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2091,7 +2113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2129,7 +2151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2167,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2205,7 +2227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2243,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2281,7 +2303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2319,7 +2341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2357,7 +2379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2395,7 +2417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2433,7 +2455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2471,7 +2493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2509,7 +2531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2547,7 +2569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2585,7 +2607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2623,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2661,7 +2683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2699,7 +2721,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2737,7 +2759,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2775,7 +2797,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>36</v>
       </c>
@@ -2813,7 +2835,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>36</v>
       </c>
@@ -2851,7 +2873,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36</v>
       </c>
@@ -2889,7 +2911,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>36</v>
       </c>
@@ -2927,7 +2949,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>36</v>
       </c>
@@ -2965,7 +2987,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>36</v>
       </c>
@@ -3003,7 +3025,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3038,10 +3060,10 @@
         <v>14</v>
       </c>
       <c r="L46">
-        <v>3.9571</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>3.9569999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3079,7 +3101,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3117,7 +3139,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3155,7 +3177,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>46</v>
       </c>
@@ -3193,7 +3215,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>46</v>
       </c>
@@ -3231,7 +3253,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3269,7 +3291,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3304,10 +3326,10 @@
         <v>51</v>
       </c>
       <c r="L53">
-        <v>3.928</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>3.9279999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3342,10 +3364,10 @@
         <v>17</v>
       </c>
       <c r="L54">
-        <v>3.928</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>3.9279999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3380,10 +3402,10 @@
         <v>70</v>
       </c>
       <c r="L55">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3418,10 +3440,10 @@
         <v>17</v>
       </c>
       <c r="L56">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -3456,10 +3478,10 @@
         <v>17</v>
       </c>
       <c r="L57">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>54</v>
       </c>
@@ -3494,10 +3516,10 @@
         <v>51</v>
       </c>
       <c r="L58">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>54</v>
       </c>
@@ -3532,10 +3554,10 @@
         <v>70</v>
       </c>
       <c r="L59">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
@@ -3570,10 +3592,10 @@
         <v>14</v>
       </c>
       <c r="L60">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>54</v>
       </c>
@@ -3608,10 +3630,10 @@
         <v>17</v>
       </c>
       <c r="L61">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>54</v>
       </c>
@@ -3646,10 +3668,10 @@
         <v>70</v>
       </c>
       <c r="L62">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>54</v>
       </c>
@@ -3684,10 +3706,10 @@
         <v>51</v>
       </c>
       <c r="L63">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>54</v>
       </c>
@@ -3722,10 +3744,10 @@
         <v>51</v>
       </c>
       <c r="L64">
-        <v>3.916</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>3.9159999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3760,10 +3782,10 @@
         <v>17</v>
       </c>
       <c r="L65">
-        <v>3.9143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>3.9140000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3771,7 +3793,7 @@
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -3789,19 +3811,19 @@
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="L66">
-        <v>3.892</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>3.8929999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3809,7 +3831,7 @@
         <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
@@ -3821,25 +3843,25 @@
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L67">
-        <v>3.8821</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>3.8919999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3847,10 +3869,10 @@
         <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -3859,10 +3881,10 @@
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I68" t="s">
         <v>14</v>
@@ -3874,12 +3896,12 @@
         <v>70</v>
       </c>
       <c r="L68">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>3.8820000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
@@ -3888,7 +3910,7 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -3897,7 +3919,7 @@
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -3906,56 +3928,56 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="L69">
         <v>3.88</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s">
         <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>70</v>
-      </c>
-      <c r="H70" t="s">
-        <v>17</v>
-      </c>
-      <c r="I70" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" t="s">
-        <v>51</v>
       </c>
       <c r="L70">
         <v>3.88</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
         <v>87</v>
@@ -3973,27 +3995,27 @@
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H71" t="s">
         <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J71" t="s">
         <v>14</v>
       </c>
       <c r="K71" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L71">
         <v>3.88</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
@@ -4002,36 +4024,36 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s">
         <v>14</v>
       </c>
       <c r="K72" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="L72">
         <v>3.88</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
         <v>89</v>
@@ -4052,22 +4074,22 @@
         <v>51</v>
       </c>
       <c r="H73" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I73" t="s">
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K73" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L73">
-        <v>3.868</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4081,31 +4103,31 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I74" t="s">
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K74" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L74">
-        <v>3.852</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>3.8679999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4113,19 +4135,19 @@
         <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="G75" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
         <v>17</v>
@@ -4137,15 +4159,15 @@
         <v>14</v>
       </c>
       <c r="K75" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L75">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>3.8519999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>92</v>
@@ -4181,7 +4203,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4213,13 +4235,13 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L77">
-        <v>3.844</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>3.8439999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4251,13 +4273,13 @@
         <v>14</v>
       </c>
       <c r="K78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L78">
-        <v>3.844</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>3.8439999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76</v>
       </c>
@@ -4292,10 +4314,10 @@
         <v>51</v>
       </c>
       <c r="L79">
-        <v>3.844</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>3.8439999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4330,10 +4352,10 @@
         <v>70</v>
       </c>
       <c r="L80">
-        <v>3.832</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>3.8319999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4368,10 +4390,10 @@
         <v>70</v>
       </c>
       <c r="L81">
-        <v>3.832</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>3.8319999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>79</v>
       </c>
@@ -4406,10 +4428,10 @@
         <v>17</v>
       </c>
       <c r="L82">
-        <v>3.832</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>3.8319999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4444,10 +4466,10 @@
         <v>70</v>
       </c>
       <c r="L83">
-        <v>3.824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>3.8239999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4479,13 +4501,13 @@
         <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L84">
-        <v>3.8179</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>3.8180000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4520,10 +4542,10 @@
         <v>17</v>
       </c>
       <c r="L85">
-        <v>3.804</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>3.8039999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4543,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
@@ -4558,10 +4580,10 @@
         <v>70</v>
       </c>
       <c r="L86">
-        <v>3.796</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>3.7959999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4596,10 +4618,10 @@
         <v>17</v>
       </c>
       <c r="L87">
-        <v>3.796</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>3.7959999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4634,10 +4656,10 @@
         <v>70</v>
       </c>
       <c r="L88">
-        <v>3.784</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>3.7839999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4672,10 +4694,10 @@
         <v>70</v>
       </c>
       <c r="L89">
-        <v>3.768</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>3.7679999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4707,13 +4729,13 @@
         <v>14</v>
       </c>
       <c r="K90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L90">
-        <v>3.7536</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>3.754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4745,13 +4767,13 @@
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L91">
-        <v>3.748</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>3.7480000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4771,7 +4793,7 @@
         <v>51</v>
       </c>
       <c r="G92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
@@ -4786,10 +4808,10 @@
         <v>70</v>
       </c>
       <c r="L92">
-        <v>3.748</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>3.7480000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
@@ -4821,13 +4843,13 @@
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L93">
-        <v>3.748</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>3.7480000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4862,10 +4884,10 @@
         <v>70</v>
       </c>
       <c r="L94">
-        <v>3.736</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>3.7360000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4900,10 +4922,10 @@
         <v>51</v>
       </c>
       <c r="L95">
-        <v>3.732</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>3.7320000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4938,10 +4960,10 @@
         <v>113</v>
       </c>
       <c r="L96">
-        <v>3.712</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>3.7120000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4976,10 +4998,10 @@
         <v>51</v>
       </c>
       <c r="L97">
-        <v>3.696</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>3.6960000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5011,13 +5033,13 @@
         <v>14</v>
       </c>
       <c r="K98" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L98">
-        <v>3.684</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>3.6840000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5052,10 +5074,10 @@
         <v>70</v>
       </c>
       <c r="L99">
-        <v>3.684</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>3.6840000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5087,13 +5109,13 @@
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L100">
-        <v>3.664</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>3.6640000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5110,7 +5132,7 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G101" t="s">
         <v>51</v>
@@ -5128,10 +5150,10 @@
         <v>17</v>
       </c>
       <c r="L101">
-        <v>3.656</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>3.6560000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5148,7 +5170,7 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G102" t="s">
         <v>113</v>
@@ -5166,10 +5188,10 @@
         <v>51</v>
       </c>
       <c r="L102">
-        <v>3.648</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>3.6480000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5204,10 +5226,10 @@
         <v>113</v>
       </c>
       <c r="L103">
-        <v>3.6429</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>3.6429999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5239,13 +5261,13 @@
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L104">
-        <v>3.636</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>3.6360000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5262,7 +5284,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G105" t="s">
         <v>51</v>
@@ -5280,10 +5302,10 @@
         <v>70</v>
       </c>
       <c r="L105">
-        <v>3.636</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>3.6360000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5321,7 +5343,7 @@
         <v>3.625</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5359,7 +5381,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5394,10 +5416,10 @@
         <v>70</v>
       </c>
       <c r="L108">
-        <v>3.612</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>3.6120000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5417,7 +5439,7 @@
         <v>70</v>
       </c>
       <c r="G109" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H109" t="s">
         <v>51</v>
@@ -5432,10 +5454,10 @@
         <v>127</v>
       </c>
       <c r="L109">
-        <v>3.5679</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>3.5680000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5470,10 +5492,10 @@
         <v>129</v>
       </c>
       <c r="L110">
-        <v>3.5591</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>3.5590000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5511,7 +5533,7 @@
         <v>3.536</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5549,7 +5571,7 @@
         <v>3.528</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5566,7 +5588,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G113" t="s">
         <v>70</v>
@@ -5581,13 +5603,13 @@
         <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L113">
         <v>3.488</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5604,7 +5626,7 @@
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G114" t="s">
         <v>113</v>
@@ -5622,10 +5644,10 @@
         <v>113</v>
       </c>
       <c r="L114">
-        <v>3.4786</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>3.4790000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5657,13 +5679,13 @@
         <v>14</v>
       </c>
       <c r="K115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L115">
         <v>3.468</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5695,10 +5717,10 @@
         <v>17</v>
       </c>
       <c r="K116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L116">
-        <v>3.3179</v>
+        <v>3.3180000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\CGPA-gen\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95791C58-AE6B-4BE6-BC8A-00A9EA784403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4284" yWindow="3900" windowWidth="17280" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="176">
   <si>
     <t>Rank</t>
   </si>
@@ -223,12 +217,12 @@
     <t>230687</t>
   </si>
   <si>
+    <t>230197</t>
+  </si>
+  <si>
     <t>230155</t>
   </si>
   <si>
-    <t>230197</t>
-  </si>
-  <si>
     <t>230492</t>
   </si>
   <si>
@@ -385,12 +379,12 @@
     <t>230581</t>
   </si>
   <si>
+    <t>230208</t>
+  </si>
+  <si>
     <t>230033</t>
   </si>
   <si>
-    <t>230208</t>
-  </si>
-  <si>
     <t>230444</t>
   </si>
   <si>
@@ -406,28 +400,28 @@
     <t>C+</t>
   </si>
   <si>
+    <t>230183</t>
+  </si>
+  <si>
+    <t>230224</t>
+  </si>
+  <si>
+    <t>230203</t>
+  </si>
+  <si>
+    <t>230238</t>
+  </si>
+  <si>
+    <t>230564</t>
+  </si>
+  <si>
+    <t>230449</t>
+  </si>
+  <si>
     <t>230493</t>
   </si>
   <si>
     <t>I-we</t>
-  </si>
-  <si>
-    <t>230183</t>
-  </si>
-  <si>
-    <t>230224</t>
-  </si>
-  <si>
-    <t>230203</t>
-  </si>
-  <si>
-    <t>230238</t>
-  </si>
-  <si>
-    <t>230564</t>
-  </si>
-  <si>
-    <t>230449</t>
   </si>
   <si>
     <t>1(6.7%)</t>
@@ -553,8 +547,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,21 +585,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +629,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -677,7 +663,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -712,10 +697,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -888,17 +872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1031,7 +1012,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1099,7 +1080,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1167,7 +1148,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1235,7 +1216,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1303,7 +1284,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1371,7 +1352,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1439,7 +1420,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1507,7 +1488,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1575,7 +1556,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1643,7 +1624,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1711,7 +1692,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1779,7 +1760,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1847,7 +1828,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1884,8 +1865,38 @@
       <c r="L15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>166</v>
+      </c>
+      <c r="R15" t="s">
+        <v>166</v>
+      </c>
+      <c r="S15" t="s">
+        <v>166</v>
+      </c>
+      <c r="T15" t="s">
+        <v>166</v>
+      </c>
+      <c r="U15" t="s">
+        <v>166</v>
+      </c>
+      <c r="V15" t="s">
+        <v>166</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1923,7 +1934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1961,7 +1972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1999,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2037,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2075,7 +2086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2113,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2151,7 +2162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2189,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2227,7 +2238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2265,7 +2276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2303,7 +2314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2341,7 +2352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2379,7 +2390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2417,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2455,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2493,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2569,7 +2580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2607,7 +2618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2645,7 +2656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2683,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2721,7 +2732,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2759,7 +2770,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2797,7 +2808,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>36</v>
       </c>
@@ -2835,7 +2846,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>36</v>
       </c>
@@ -2873,7 +2884,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>36</v>
       </c>
@@ -2911,7 +2922,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>36</v>
       </c>
@@ -2949,7 +2960,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>36</v>
       </c>
@@ -2987,7 +2998,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>36</v>
       </c>
@@ -3025,7 +3036,7 @@
         <v>3.964</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3060,10 +3071,10 @@
         <v>14</v>
       </c>
       <c r="L46">
-        <v>3.9569999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.957</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3101,7 +3112,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3139,7 +3150,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3177,7 +3188,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>46</v>
       </c>
@@ -3215,7 +3226,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>46</v>
       </c>
@@ -3253,7 +3264,7 @@
         <v>3.952</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3291,7 +3302,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3302,36 +3313,36 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L53">
-        <v>3.9279999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.928</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>68</v>
@@ -3340,34 +3351,34 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K54" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L54">
-        <v>3.9279999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3402,10 +3413,10 @@
         <v>70</v>
       </c>
       <c r="L55">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3440,10 +3451,10 @@
         <v>17</v>
       </c>
       <c r="L56">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>54</v>
       </c>
@@ -3478,10 +3489,10 @@
         <v>17</v>
       </c>
       <c r="L57">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>54</v>
       </c>
@@ -3516,10 +3527,10 @@
         <v>51</v>
       </c>
       <c r="L58">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>54</v>
       </c>
@@ -3554,10 +3565,10 @@
         <v>70</v>
       </c>
       <c r="L59">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>54</v>
       </c>
@@ -3592,10 +3603,10 @@
         <v>14</v>
       </c>
       <c r="L60">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>54</v>
       </c>
@@ -3630,10 +3641,10 @@
         <v>17</v>
       </c>
       <c r="L61">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>54</v>
       </c>
@@ -3668,10 +3679,10 @@
         <v>70</v>
       </c>
       <c r="L62">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>54</v>
       </c>
@@ -3706,10 +3717,10 @@
         <v>51</v>
       </c>
       <c r="L63">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>54</v>
       </c>
@@ -3744,10 +3755,10 @@
         <v>51</v>
       </c>
       <c r="L64">
-        <v>3.9159999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.916</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3782,10 +3793,10 @@
         <v>17</v>
       </c>
       <c r="L65">
-        <v>3.9140000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.914</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3820,12 +3831,12 @@
         <v>70</v>
       </c>
       <c r="L66">
-        <v>3.8929999999999998</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.892</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
@@ -3858,10 +3869,10 @@
         <v>51</v>
       </c>
       <c r="L67">
-        <v>3.8919999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3896,10 +3907,10 @@
         <v>70</v>
       </c>
       <c r="L68">
-        <v>3.8820000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.882</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3937,7 +3948,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3975,7 +3986,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>68</v>
       </c>
@@ -4013,7 +4024,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>68</v>
       </c>
@@ -4051,7 +4062,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>68</v>
       </c>
@@ -4089,7 +4100,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4124,10 +4135,10 @@
         <v>17</v>
       </c>
       <c r="L74">
-        <v>3.8679999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.868</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4162,10 +4173,10 @@
         <v>51</v>
       </c>
       <c r="L75">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.852</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4203,7 +4214,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4238,10 +4249,10 @@
         <v>86</v>
       </c>
       <c r="L77">
-        <v>3.8439999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.844</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4276,10 +4287,10 @@
         <v>86</v>
       </c>
       <c r="L78">
-        <v>3.8439999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.844</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>76</v>
       </c>
@@ -4314,10 +4325,10 @@
         <v>51</v>
       </c>
       <c r="L79">
-        <v>3.8439999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.844</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4352,10 +4363,10 @@
         <v>70</v>
       </c>
       <c r="L80">
-        <v>3.8319999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.832</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4390,10 +4401,10 @@
         <v>70</v>
       </c>
       <c r="L81">
-        <v>3.8319999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.832</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>79</v>
       </c>
@@ -4428,10 +4439,10 @@
         <v>17</v>
       </c>
       <c r="L82">
-        <v>3.8319999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.832</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4466,10 +4477,10 @@
         <v>70</v>
       </c>
       <c r="L83">
-        <v>3.8239999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.824</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4504,10 +4515,10 @@
         <v>86</v>
       </c>
       <c r="L84">
-        <v>3.8180000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.817</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4542,10 +4553,10 @@
         <v>17</v>
       </c>
       <c r="L85">
-        <v>3.8039999999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.804</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4580,10 +4591,10 @@
         <v>70</v>
       </c>
       <c r="L86">
-        <v>3.7959999999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.796</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4618,10 +4629,10 @@
         <v>17</v>
       </c>
       <c r="L87">
-        <v>3.7959999999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.796</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4656,10 +4667,10 @@
         <v>70</v>
       </c>
       <c r="L88">
-        <v>3.7839999999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.784</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4694,10 +4705,10 @@
         <v>70</v>
       </c>
       <c r="L89">
-        <v>3.7679999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4732,10 +4743,10 @@
         <v>86</v>
       </c>
       <c r="L90">
-        <v>3.754</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.753</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4770,10 +4781,10 @@
         <v>86</v>
       </c>
       <c r="L91">
-        <v>3.7480000000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.747</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4808,10 +4819,10 @@
         <v>70</v>
       </c>
       <c r="L92">
-        <v>3.7480000000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.747</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>90</v>
       </c>
@@ -4846,10 +4857,10 @@
         <v>86</v>
       </c>
       <c r="L93">
-        <v>3.7480000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.747</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4884,10 +4895,10 @@
         <v>70</v>
       </c>
       <c r="L94">
-        <v>3.7360000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.736</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4922,10 +4933,10 @@
         <v>51</v>
       </c>
       <c r="L95">
-        <v>3.7320000000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.732</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4960,10 +4971,10 @@
         <v>113</v>
       </c>
       <c r="L96">
-        <v>3.7120000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.712</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4998,10 +5009,10 @@
         <v>51</v>
       </c>
       <c r="L97">
-        <v>3.6960000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.696</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5036,10 +5047,10 @@
         <v>86</v>
       </c>
       <c r="L98">
-        <v>3.6840000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.683</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5074,10 +5085,10 @@
         <v>70</v>
       </c>
       <c r="L99">
-        <v>3.6840000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.683</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5112,10 +5123,10 @@
         <v>86</v>
       </c>
       <c r="L100">
-        <v>3.6640000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.663</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5150,10 +5161,10 @@
         <v>17</v>
       </c>
       <c r="L101">
-        <v>3.6560000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.656</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5188,10 +5199,10 @@
         <v>51</v>
       </c>
       <c r="L102">
-        <v>3.6480000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.647</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5226,10 +5237,10 @@
         <v>113</v>
       </c>
       <c r="L103">
-        <v>3.6429999999999998</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.642</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5246,30 +5257,30 @@
         <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="G104" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H104" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I104" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="L104">
-        <v>3.6360000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.636</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>122</v>
@@ -5284,28 +5295,28 @@
         <v>17</v>
       </c>
       <c r="F105" t="s">
+        <v>51</v>
+      </c>
+      <c r="G105" t="s">
+        <v>70</v>
+      </c>
+      <c r="H105" t="s">
+        <v>70</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" t="s">
         <v>86</v>
       </c>
-      <c r="G105" t="s">
-        <v>51</v>
-      </c>
-      <c r="H105" t="s">
-        <v>51</v>
-      </c>
-      <c r="I105" t="s">
-        <v>51</v>
-      </c>
-      <c r="J105" t="s">
-        <v>17</v>
-      </c>
-      <c r="K105" t="s">
-        <v>70</v>
-      </c>
       <c r="L105">
-        <v>3.6360000000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.635</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5343,7 +5354,7 @@
         <v>3.625</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5381,7 +5392,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5416,10 +5427,10 @@
         <v>70</v>
       </c>
       <c r="L108">
-        <v>3.6120000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.612</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5454,10 +5465,10 @@
         <v>127</v>
       </c>
       <c r="L109">
-        <v>3.5680000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.567</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5468,19 +5479,19 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s">
         <v>70</v>
       </c>
       <c r="G110" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="H110" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -5489,24 +5500,24 @@
         <v>51</v>
       </c>
       <c r="K110" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="L110">
-        <v>3.5590000000000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.536</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -5515,109 +5526,109 @@
         <v>70</v>
       </c>
       <c r="G111" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I111" t="s">
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="K111" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="L111">
-        <v>3.536</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.528</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G112" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="H112" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I112" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J112" t="s">
         <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="L112">
-        <v>3.528</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.487</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F113" t="s">
         <v>86</v>
       </c>
       <c r="G113" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="H113" t="s">
         <v>70</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K113" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="L113">
-        <v>3.488</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -5626,13 +5637,13 @@
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G114" t="s">
         <v>113</v>
       </c>
       <c r="H114" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -5641,62 +5652,62 @@
         <v>14</v>
       </c>
       <c r="K114" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="L114">
-        <v>3.4790000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="G115" t="s">
         <v>113</v>
       </c>
       <c r="H115" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="I115" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K115" t="s">
         <v>86</v>
       </c>
       <c r="L115">
-        <v>3.468</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.317</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
@@ -5708,19 +5719,19 @@
         <v>113</v>
       </c>
       <c r="H116" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="I116" t="s">
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K116" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="L116">
-        <v>3.3180000000000001</v>
+        <v>3.132</v>
       </c>
     </row>
   </sheetData>

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -64,18 +64,18 @@
     <t>230171</t>
   </si>
   <si>
+    <t>230476</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>230018</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>230318</t>
   </si>
   <si>
-    <t>230476</t>
-  </si>
-  <si>
     <t>230266</t>
   </si>
   <si>
@@ -115,15 +115,15 @@
     <t>230566</t>
   </si>
   <si>
+    <t>230508</t>
+  </si>
+  <si>
+    <t>230051</t>
+  </si>
+  <si>
     <t>230481</t>
   </si>
   <si>
-    <t>230508</t>
-  </si>
-  <si>
-    <t>230051</t>
-  </si>
-  <si>
     <t>230487</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
     <t>230138</t>
   </si>
   <si>
+    <t>230332</t>
+  </si>
+  <si>
     <t>230468</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
     <t>230525</t>
   </si>
   <si>
-    <t>230332</t>
-  </si>
-  <si>
     <t>230680</t>
   </si>
   <si>
@@ -214,6 +214,12 @@
     <t>230017</t>
   </si>
   <si>
+    <t>230417</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
     <t>230687</t>
   </si>
   <si>
@@ -226,9 +232,6 @@
     <t>230492</t>
   </si>
   <si>
-    <t>B+</t>
-  </si>
-  <si>
     <t>230045</t>
   </si>
   <si>
@@ -241,9 +244,6 @@
     <t>230322</t>
   </si>
   <si>
-    <t>230417</t>
-  </si>
-  <si>
     <t>230280</t>
   </si>
   <si>
@@ -259,10 +259,13 @@
     <t>230016</t>
   </si>
   <si>
+    <t>230211</t>
+  </si>
+  <si>
     <t>230727</t>
   </si>
   <si>
-    <t>230211</t>
+    <t>230212</t>
   </si>
   <si>
     <t>230507</t>
@@ -280,9 +283,6 @@
     <t>230659</t>
   </si>
   <si>
-    <t>230212</t>
-  </si>
-  <si>
     <t>230726</t>
   </si>
   <si>
@@ -319,18 +319,21 @@
     <t>230218</t>
   </si>
   <si>
+    <t>230195</t>
+  </si>
+  <si>
     <t>230735</t>
   </si>
   <si>
     <t>230012</t>
   </si>
   <si>
-    <t>230195</t>
-  </si>
-  <si>
     <t>230229</t>
   </si>
   <si>
+    <t>230407</t>
+  </si>
+  <si>
     <t>230261</t>
   </si>
   <si>
@@ -343,9 +346,6 @@
     <t>230520</t>
   </si>
   <si>
-    <t>230407</t>
-  </si>
-  <si>
     <t>230458</t>
   </si>
   <si>
@@ -376,16 +376,16 @@
     <t>230013</t>
   </si>
   <si>
+    <t>230208</t>
+  </si>
+  <si>
     <t>230581</t>
   </si>
   <si>
-    <t>230208</t>
+    <t>230444</t>
   </si>
   <si>
     <t>230033</t>
-  </si>
-  <si>
-    <t>230444</t>
   </si>
   <si>
     <t>230268</t>
@@ -1106,13 +1106,13 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>4</v>
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s">
         <v>160</v>
@@ -1242,19 +1242,19 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
         <v>166</v>
@@ -2056,25 +2056,25 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
@@ -2103,13 +2103,13 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -2132,10 +2132,10 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -2144,13 +2144,13 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -2436,7 +2436,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -2454,10 +2454,10 @@
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
@@ -2486,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
@@ -2495,7 +2495,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -2588,7 +2588,7 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -2600,13 +2600,13 @@
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
@@ -2729,12 +2729,12 @@
         <v>14</v>
       </c>
       <c r="L37">
-        <v>3.964</v>
+        <v>3.975</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>52</v>
@@ -2767,12 +2767,12 @@
         <v>51</v>
       </c>
       <c r="L38">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -2805,12 +2805,12 @@
         <v>17</v>
       </c>
       <c r="L39">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -2843,12 +2843,12 @@
         <v>51</v>
       </c>
       <c r="L40">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -2881,12 +2881,12 @@
         <v>51</v>
       </c>
       <c r="L41">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -2919,12 +2919,12 @@
         <v>51</v>
       </c>
       <c r="L42">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -2957,12 +2957,12 @@
         <v>14</v>
       </c>
       <c r="L43">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -2995,12 +2995,12 @@
         <v>51</v>
       </c>
       <c r="L44">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -3033,7 +3033,7 @@
         <v>17</v>
       </c>
       <c r="L45">
-        <v>3.964</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3071,7 +3071,7 @@
         <v>14</v>
       </c>
       <c r="L46">
-        <v>3.957</v>
+        <v>3.955</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3109,7 +3109,7 @@
         <v>17</v>
       </c>
       <c r="L47">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3147,7 +3147,7 @@
         <v>17</v>
       </c>
       <c r="L48">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="L49">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3223,7 +3223,7 @@
         <v>17</v>
       </c>
       <c r="L50">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3261,7 +3261,7 @@
         <v>17</v>
       </c>
       <c r="L51">
-        <v>3.952</v>
+        <v>3.949</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3278,7 +3278,7 @@
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -3287,19 +3287,19 @@
         <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="L52">
-        <v>3.94</v>
+        <v>3.941</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3307,16 +3307,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -3328,54 +3328,54 @@
         <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
       <c r="K53" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="L53">
-        <v>3.928</v>
+        <v>3.937</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J54" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L54">
-        <v>3.927</v>
+        <v>3.937</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3383,7 +3383,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -3398,10 +3398,10 @@
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s">
         <v>14</v>
@@ -3410,15 +3410,15 @@
         <v>14</v>
       </c>
       <c r="K55" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L55">
-        <v>3.916</v>
+        <v>3.924</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
@@ -3427,36 +3427,36 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="L56">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -3465,7 +3465,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -3474,13 +3474,13 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
@@ -3489,12 +3489,12 @@
         <v>17</v>
       </c>
       <c r="L57">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -3509,30 +3509,30 @@
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L58">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -3541,13 +3541,13 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
@@ -3556,21 +3556,21 @@
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L59">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -3594,21 +3594,21 @@
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="L60">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
@@ -3641,12 +3641,12 @@
         <v>17</v>
       </c>
       <c r="L61">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -3676,15 +3676,15 @@
         <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L62">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
@@ -3717,12 +3717,12 @@
         <v>51</v>
       </c>
       <c r="L63">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
@@ -3755,7 +3755,7 @@
         <v>51</v>
       </c>
       <c r="L64">
-        <v>3.916</v>
+        <v>3.912</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3793,7 +3793,7 @@
         <v>17</v>
       </c>
       <c r="L65">
-        <v>3.914</v>
+        <v>3.911</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3804,7 +3804,7 @@
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -3822,27 +3822,27 @@
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L66">
-        <v>3.892</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
@@ -3860,16 +3860,16 @@
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="L67">
-        <v>3.892</v>
+        <v>3.888</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3880,10 +3880,10 @@
         <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -3895,19 +3895,19 @@
         <v>17</v>
       </c>
       <c r="H68" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L68">
-        <v>3.882</v>
+        <v>3.887</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3918,10 +3918,10 @@
         <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -3930,10 +3930,10 @@
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I69" t="s">
         <v>14</v>
@@ -3942,15 +3942,15 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L69">
-        <v>3.88</v>
+        <v>3.877</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>85</v>
@@ -3959,7 +3959,7 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -3968,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -3977,56 +3977,56 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L70">
-        <v>3.88</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s">
         <v>87</v>
       </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" t="s">
-        <v>14</v>
-      </c>
-      <c r="K71" t="s">
-        <v>51</v>
-      </c>
       <c r="L71">
-        <v>3.88</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>88</v>
@@ -4044,27 +4044,27 @@
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J72" t="s">
         <v>14</v>
       </c>
       <c r="K72" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="L72">
-        <v>3.88</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
         <v>89</v>
@@ -4097,7 +4097,7 @@
         <v>51</v>
       </c>
       <c r="L73">
-        <v>3.88</v>
+        <v>3.875</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4135,7 +4135,7 @@
         <v>17</v>
       </c>
       <c r="L74">
-        <v>3.868</v>
+        <v>3.862</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4155,7 +4155,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
@@ -4173,7 +4173,7 @@
         <v>51</v>
       </c>
       <c r="L75">
-        <v>3.852</v>
+        <v>3.845</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4208,10 +4208,10 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L76">
-        <v>3.85</v>
+        <v>3.844</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4246,10 +4246,10 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L77">
-        <v>3.844</v>
+        <v>3.837</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4284,10 +4284,10 @@
         <v>14</v>
       </c>
       <c r="K78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L78">
-        <v>3.844</v>
+        <v>3.837</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4310,7 +4310,7 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -4325,7 +4325,7 @@
         <v>51</v>
       </c>
       <c r="L79">
-        <v>3.844</v>
+        <v>3.837</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4339,7 +4339,7 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -4360,10 +4360,10 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L80">
-        <v>3.832</v>
+        <v>3.825</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4398,10 +4398,10 @@
         <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L81">
-        <v>3.832</v>
+        <v>3.825</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4424,7 +4424,7 @@
         <v>51</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
@@ -4439,7 +4439,7 @@
         <v>17</v>
       </c>
       <c r="L82">
-        <v>3.832</v>
+        <v>3.825</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4456,7 +4456,7 @@
         <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -4474,10 +4474,10 @@
         <v>17</v>
       </c>
       <c r="K83" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L83">
-        <v>3.824</v>
+        <v>3.816</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4500,7 +4500,7 @@
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H84" t="s">
         <v>17</v>
@@ -4512,10 +4512,10 @@
         <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L84">
-        <v>3.817</v>
+        <v>3.811</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4529,31 +4529,31 @@
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H85" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J85" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K85" t="s">
         <v>17</v>
       </c>
       <c r="L85">
-        <v>3.804</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4573,30 +4573,30 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K86" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="L86">
-        <v>3.796</v>
+        <v>3.795</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>103</v>
@@ -4605,31 +4605,31 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J87" t="s">
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="L87">
-        <v>3.796</v>
+        <v>3.787</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4652,7 +4652,7 @@
         <v>51</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
@@ -4664,10 +4664,10 @@
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L88">
-        <v>3.784</v>
+        <v>3.775</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4687,25 +4687,25 @@
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="J89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K89" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="L89">
-        <v>3.768</v>
+        <v>3.766</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4716,16 +4716,16 @@
         <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G90" t="s">
         <v>51</v>
@@ -4737,13 +4737,13 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L90">
-        <v>3.753</v>
+        <v>3.758</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4754,19 +4754,19 @@
         <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F91" t="s">
         <v>51</v>
       </c>
       <c r="G91" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H91" t="s">
         <v>17</v>
@@ -4778,15 +4778,15 @@
         <v>14</v>
       </c>
       <c r="K91" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L91">
-        <v>3.747</v>
+        <v>3.744</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>108</v>
@@ -4804,7 +4804,7 @@
         <v>51</v>
       </c>
       <c r="G92" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
@@ -4816,15 +4816,15 @@
         <v>14</v>
       </c>
       <c r="K92" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="L92">
-        <v>3.747</v>
+        <v>3.737</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>109</v>
@@ -4839,25 +4839,25 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H93" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I93" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L93">
-        <v>3.747</v>
+        <v>3.737</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4880,7 +4880,7 @@
         <v>51</v>
       </c>
       <c r="G94" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H94" t="s">
         <v>51</v>
@@ -4892,10 +4892,10 @@
         <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L94">
-        <v>3.736</v>
+        <v>3.725</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4915,7 +4915,7 @@
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G95" t="s">
         <v>51</v>
@@ -4933,7 +4933,7 @@
         <v>51</v>
       </c>
       <c r="L95">
-        <v>3.732</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4956,7 +4956,7 @@
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H96" t="s">
         <v>51</v>
@@ -4971,7 +4971,7 @@
         <v>113</v>
       </c>
       <c r="L96">
-        <v>3.712</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4991,7 +4991,7 @@
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G97" t="s">
         <v>51</v>
@@ -5009,7 +5009,7 @@
         <v>51</v>
       </c>
       <c r="L97">
-        <v>3.696</v>
+        <v>3.695</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5035,7 +5035,7 @@
         <v>51</v>
       </c>
       <c r="H98" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I98" t="s">
         <v>14</v>
@@ -5044,10 +5044,10 @@
         <v>14</v>
       </c>
       <c r="K98" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L98">
-        <v>3.683</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5067,10 +5067,10 @@
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G99" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H99" t="s">
         <v>17</v>
@@ -5082,10 +5082,10 @@
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L99">
-        <v>3.683</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5099,7 +5099,7 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -5108,7 +5108,7 @@
         <v>51</v>
       </c>
       <c r="G100" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H100" t="s">
         <v>17</v>
@@ -5120,10 +5120,10 @@
         <v>17</v>
       </c>
       <c r="K100" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L100">
-        <v>3.663</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5143,13 +5143,13 @@
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G101" t="s">
         <v>51</v>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
@@ -5161,7 +5161,7 @@
         <v>17</v>
       </c>
       <c r="L101">
-        <v>3.656</v>
+        <v>3.641</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5181,7 +5181,7 @@
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G102" t="s">
         <v>113</v>
@@ -5199,45 +5199,45 @@
         <v>51</v>
       </c>
       <c r="L102">
-        <v>3.647</v>
+        <v>3.633</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G103" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H103" t="s">
         <v>51</v>
       </c>
       <c r="I103" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
       </c>
       <c r="K103" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="L103">
-        <v>3.642</v>
+        <v>3.633</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5248,34 +5248,34 @@
         <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="G104" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H104" t="s">
         <v>51</v>
       </c>
       <c r="I104" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="L104">
-        <v>3.636</v>
+        <v>3.629</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5286,34 +5286,34 @@
         <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s">
         <v>51</v>
       </c>
       <c r="G105" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H105" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J105" t="s">
         <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="L105">
-        <v>3.635</v>
+        <v>3.622</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5324,34 +5324,34 @@
         <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
         <v>51</v>
       </c>
       <c r="G106" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H106" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I106" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J106" t="s">
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="L106">
-        <v>3.625</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5371,13 +5371,13 @@
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G107" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I107" t="s">
         <v>14</v>
@@ -5389,7 +5389,7 @@
         <v>51</v>
       </c>
       <c r="L107">
-        <v>3.62</v>
+        <v>3.604</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5409,7 +5409,7 @@
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -5424,10 +5424,10 @@
         <v>14</v>
       </c>
       <c r="K108" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L108">
-        <v>3.612</v>
+        <v>3.595</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5447,10 +5447,10 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G109" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H109" t="s">
         <v>51</v>
@@ -5465,7 +5465,7 @@
         <v>127</v>
       </c>
       <c r="L109">
-        <v>3.567</v>
+        <v>3.551</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5479,19 +5479,19 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G110" t="s">
         <v>51</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
@@ -5500,10 +5500,10 @@
         <v>51</v>
       </c>
       <c r="K110" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L110">
-        <v>3.536</v>
+        <v>3.516</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5523,7 +5523,7 @@
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G111" t="s">
         <v>113</v>
@@ -5541,7 +5541,7 @@
         <v>127</v>
       </c>
       <c r="L111">
-        <v>3.528</v>
+        <v>3.508</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5561,13 +5561,13 @@
         <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I112" t="s">
         <v>51</v>
@@ -5576,10 +5576,10 @@
         <v>17</v>
       </c>
       <c r="K112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L112">
-        <v>3.487</v>
+        <v>3.479</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5599,13 +5599,13 @@
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G113" t="s">
         <v>113</v>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -5617,7 +5617,7 @@
         <v>113</v>
       </c>
       <c r="L113">
-        <v>3.478</v>
+        <v>3.459</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5652,10 +5652,10 @@
         <v>14</v>
       </c>
       <c r="K114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L114">
-        <v>3.468</v>
+        <v>3.445</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5666,16 +5666,16 @@
         <v>133</v>
       </c>
       <c r="C115" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D115" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G115" t="s">
         <v>113</v>
@@ -5690,10 +5690,10 @@
         <v>17</v>
       </c>
       <c r="K115" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L115">
-        <v>3.317</v>
+        <v>3.292</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5713,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G116" t="s">
         <v>113</v>
@@ -5731,7 +5731,7 @@
         <v>135</v>
       </c>
       <c r="L116">
-        <v>3.132</v>
+        <v>3.095</v>
       </c>
     </row>
   </sheetData>

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\CGPA-gen\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA2BCEB-1111-45EE-8672-EB26F4483F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="7260" yWindow="2424" windowWidth="12636" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -547,8 +553,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,13 +591,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -629,7 +643,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -663,6 +677,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -697,9 +712,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -872,14 +888,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD102"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1012,7 +1031,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1080,7 +1099,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1148,7 +1167,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1216,7 +1235,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1284,7 +1303,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1352,7 +1371,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1420,7 +1439,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1488,7 +1507,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1556,7 +1575,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1624,7 +1643,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1692,7 +1711,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1760,7 +1779,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1828,7 +1847,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1896,7 +1915,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1934,7 +1953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1972,7 +1991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2010,7 +2029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2048,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2086,7 +2105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2124,7 +2143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2162,7 +2181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2200,7 +2219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2238,7 +2257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2276,7 +2295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2314,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2352,7 +2371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2390,7 +2409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2428,7 +2447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2466,7 +2485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2504,7 +2523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2542,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2580,7 +2599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2618,7 +2637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2656,7 +2675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2694,7 +2713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2729,10 +2748,10 @@
         <v>14</v>
       </c>
       <c r="L37">
-        <v>3.975</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>3.9750000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2767,10 +2786,10 @@
         <v>51</v>
       </c>
       <c r="L38">
-        <v>3.962</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2805,10 +2824,10 @@
         <v>17</v>
       </c>
       <c r="L39">
-        <v>3.962</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2843,10 +2862,10 @@
         <v>51</v>
       </c>
       <c r="L40">
-        <v>3.962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>37</v>
       </c>
@@ -2881,10 +2900,10 @@
         <v>51</v>
       </c>
       <c r="L41">
-        <v>3.962</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>37</v>
       </c>
@@ -2919,10 +2938,10 @@
         <v>51</v>
       </c>
       <c r="L42">
-        <v>3.962</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>37</v>
       </c>
@@ -2957,10 +2976,10 @@
         <v>14</v>
       </c>
       <c r="L43">
-        <v>3.962</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>37</v>
       </c>
@@ -2995,10 +3014,10 @@
         <v>51</v>
       </c>
       <c r="L44">
-        <v>3.962</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>37</v>
       </c>
@@ -3033,10 +3052,10 @@
         <v>17</v>
       </c>
       <c r="L45">
-        <v>3.962</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>3.9620000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3071,10 +3090,10 @@
         <v>14</v>
       </c>
       <c r="L46">
-        <v>3.955</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>3.9550000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3109,10 +3128,10 @@
         <v>17</v>
       </c>
       <c r="L47">
-        <v>3.949</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>3.9489999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3147,10 +3166,10 @@
         <v>17</v>
       </c>
       <c r="L48">
-        <v>3.949</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>3.9489999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -3185,10 +3204,10 @@
         <v>17</v>
       </c>
       <c r="L49">
-        <v>3.949</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>3.9489999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>46</v>
       </c>
@@ -3223,10 +3242,10 @@
         <v>17</v>
       </c>
       <c r="L50">
-        <v>3.949</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>3.9489999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>46</v>
       </c>
@@ -3261,10 +3280,10 @@
         <v>17</v>
       </c>
       <c r="L51">
-        <v>3.949</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>3.9489999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3299,10 +3318,10 @@
         <v>14</v>
       </c>
       <c r="L52">
-        <v>3.941</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>3.9409999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3337,10 +3356,10 @@
         <v>51</v>
       </c>
       <c r="L53">
-        <v>3.937</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>3.9369999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3375,10 +3394,10 @@
         <v>17</v>
       </c>
       <c r="L54">
-        <v>3.937</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>3.9369999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3413,10 +3432,10 @@
         <v>51</v>
       </c>
       <c r="L55">
-        <v>3.924</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>3.9239999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3451,10 +3470,10 @@
         <v>67</v>
       </c>
       <c r="L56">
-        <v>3.912</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3489,10 +3508,10 @@
         <v>17</v>
       </c>
       <c r="L57">
-        <v>3.912</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -3527,10 +3546,10 @@
         <v>17</v>
       </c>
       <c r="L58">
-        <v>3.912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>55</v>
       </c>
@@ -3565,10 +3584,10 @@
         <v>51</v>
       </c>
       <c r="L59">
-        <v>3.912</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>55</v>
       </c>
@@ -3603,10 +3622,10 @@
         <v>67</v>
       </c>
       <c r="L60">
-        <v>3.912</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
@@ -3641,10 +3660,10 @@
         <v>17</v>
       </c>
       <c r="L61">
-        <v>3.912</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>55</v>
       </c>
@@ -3679,10 +3698,10 @@
         <v>67</v>
       </c>
       <c r="L62">
-        <v>3.912</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>55</v>
       </c>
@@ -3717,10 +3736,10 @@
         <v>51</v>
       </c>
       <c r="L63">
-        <v>3.912</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>55</v>
       </c>
@@ -3755,10 +3774,10 @@
         <v>51</v>
       </c>
       <c r="L64">
-        <v>3.912</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>3.9119999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3796,7 +3815,7 @@
         <v>3.911</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3834,7 +3853,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3869,10 +3888,10 @@
         <v>67</v>
       </c>
       <c r="L67">
-        <v>3.888</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>3.8879999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3910,7 +3929,7 @@
         <v>3.887</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3945,10 +3964,10 @@
         <v>67</v>
       </c>
       <c r="L69">
-        <v>3.877</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>3.8769999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3986,7 +4005,7 @@
         <v>3.875</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4024,7 +4043,7 @@
         <v>3.875</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
@@ -4062,7 +4081,7 @@
         <v>3.875</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>69</v>
       </c>
@@ -4100,7 +4119,7 @@
         <v>3.875</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4135,10 +4154,10 @@
         <v>17</v>
       </c>
       <c r="L74">
-        <v>3.862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>3.8620000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4173,10 +4192,10 @@
         <v>51</v>
       </c>
       <c r="L75">
-        <v>3.845</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>3.8450000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4211,10 +4230,10 @@
         <v>67</v>
       </c>
       <c r="L76">
-        <v>3.844</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>3.8439999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4249,10 +4268,10 @@
         <v>87</v>
       </c>
       <c r="L77">
-        <v>3.837</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>3.8370000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4287,10 +4306,10 @@
         <v>87</v>
       </c>
       <c r="L78">
-        <v>3.837</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>3.8370000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76</v>
       </c>
@@ -4325,10 +4344,10 @@
         <v>51</v>
       </c>
       <c r="L79">
-        <v>3.837</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>3.8370000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4363,10 +4382,10 @@
         <v>67</v>
       </c>
       <c r="L80">
-        <v>3.825</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4401,10 +4420,10 @@
         <v>67</v>
       </c>
       <c r="L81">
-        <v>3.825</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>79</v>
       </c>
@@ -4439,10 +4458,10 @@
         <v>17</v>
       </c>
       <c r="L82">
-        <v>3.825</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4477,10 +4496,10 @@
         <v>67</v>
       </c>
       <c r="L83">
-        <v>3.816</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>3.8159999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4515,10 +4534,10 @@
         <v>87</v>
       </c>
       <c r="L84">
-        <v>3.811</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>3.8109999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4556,7 +4575,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4591,10 +4610,10 @@
         <v>17</v>
       </c>
       <c r="L86">
-        <v>3.795</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>3.7949999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4629,10 +4648,10 @@
         <v>67</v>
       </c>
       <c r="L87">
-        <v>3.787</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>3.7869999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4667,10 +4686,10 @@
         <v>67</v>
       </c>
       <c r="L88">
-        <v>3.775</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>3.7749999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4708,7 +4727,7 @@
         <v>3.766</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4746,7 +4765,7 @@
         <v>3.758</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4781,10 +4800,10 @@
         <v>87</v>
       </c>
       <c r="L91">
-        <v>3.744</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>3.7440000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4819,10 +4838,10 @@
         <v>87</v>
       </c>
       <c r="L92">
-        <v>3.737</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>3.7370000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4857,10 +4876,10 @@
         <v>67</v>
       </c>
       <c r="L93">
-        <v>3.737</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>3.7370000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4895,10 +4914,10 @@
         <v>67</v>
       </c>
       <c r="L94">
-        <v>3.725</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4936,7 +4955,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4974,7 +4993,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5009,10 +5028,10 @@
         <v>51</v>
       </c>
       <c r="L97">
-        <v>3.695</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>3.6949999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5050,7 +5069,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5088,7 +5107,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5126,7 +5145,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5164,7 +5183,7 @@
         <v>3.641</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5202,7 +5221,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5240,7 +5259,7 @@
         <v>3.633</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5278,7 +5297,7 @@
         <v>3.629</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5313,10 +5332,10 @@
         <v>67</v>
       </c>
       <c r="L105">
-        <v>3.622</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>3.6219999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5354,7 +5373,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5389,10 +5408,10 @@
         <v>51</v>
       </c>
       <c r="L107">
-        <v>3.604</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>3.6040000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5427,10 +5446,10 @@
         <v>67</v>
       </c>
       <c r="L108">
-        <v>3.595</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>3.5950000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5465,10 +5484,10 @@
         <v>127</v>
       </c>
       <c r="L109">
-        <v>3.551</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>3.5510000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5506,7 +5525,7 @@
         <v>3.516</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5544,7 +5563,7 @@
         <v>3.508</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5579,10 +5598,10 @@
         <v>87</v>
       </c>
       <c r="L112">
-        <v>3.479</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>3.4790000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5617,10 +5636,10 @@
         <v>113</v>
       </c>
       <c r="L113">
-        <v>3.459</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>3.4590000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5655,10 +5674,10 @@
         <v>87</v>
       </c>
       <c r="L114">
-        <v>3.445</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>3.4449999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5693,10 +5712,10 @@
         <v>87</v>
       </c>
       <c r="L115">
-        <v>3.292</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>3.2919999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5731,7 +5750,7 @@
         <v>135</v>
       </c>
       <c r="L116">
-        <v>3.095</v>
+        <v>3.0950000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/output/Results - sem2.xlsx
+++ b/output/Results - sem2.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\CGPA-gen\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA2BCEB-1111-45EE-8672-EB26F4483F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="2424" windowWidth="12636" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="175">
   <si>
     <t>Rank</t>
   </si>
@@ -94,12 +88,12 @@
     <t>230082</t>
   </si>
   <si>
+    <t>230121</t>
+  </si>
+  <si>
     <t>230486</t>
   </si>
   <si>
-    <t>230121</t>
-  </si>
-  <si>
     <t>230539</t>
   </si>
   <si>
@@ -121,27 +115,30 @@
     <t>230566</t>
   </si>
   <si>
+    <t>230481</t>
+  </si>
+  <si>
     <t>230508</t>
   </si>
   <si>
+    <t>230045</t>
+  </si>
+  <si>
     <t>230051</t>
   </si>
   <si>
-    <t>230481</t>
-  </si>
-  <si>
     <t>230487</t>
   </si>
   <si>
+    <t>230100</t>
+  </si>
+  <si>
     <t>230186</t>
   </si>
   <si>
     <t>230544</t>
   </si>
   <si>
-    <t>230100</t>
-  </si>
-  <si>
     <t>230689</t>
   </si>
   <si>
@@ -151,21 +148,21 @@
     <t>230138</t>
   </si>
   <si>
+    <t>230468</t>
+  </si>
+  <si>
+    <t>230038</t>
+  </si>
+  <si>
+    <t>230521</t>
+  </si>
+  <si>
+    <t>230525</t>
+  </si>
+  <si>
     <t>230332</t>
   </si>
   <si>
-    <t>230468</t>
-  </si>
-  <si>
-    <t>230038</t>
-  </si>
-  <si>
-    <t>230521</t>
-  </si>
-  <si>
-    <t>230525</t>
-  </si>
-  <si>
     <t>230680</t>
   </si>
   <si>
@@ -190,12 +187,12 @@
     <t>230353</t>
   </si>
   <si>
+    <t>230697</t>
+  </si>
+  <si>
     <t>230585</t>
   </si>
   <si>
-    <t>230697</t>
-  </si>
-  <si>
     <t>230140</t>
   </si>
   <si>
@@ -235,12 +232,12 @@
     <t>230155</t>
   </si>
   <si>
+    <t>230016</t>
+  </si>
+  <si>
     <t>230492</t>
   </si>
   <si>
-    <t>230045</t>
-  </si>
-  <si>
     <t>230063</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>230629</t>
   </si>
   <si>
-    <t>230016</t>
-  </si>
-  <si>
     <t>230211</t>
   </si>
   <si>
@@ -289,27 +283,27 @@
     <t>230659</t>
   </si>
   <si>
+    <t>230495</t>
+  </si>
+  <si>
     <t>230726</t>
   </si>
   <si>
     <t>230020</t>
   </si>
   <si>
+    <t>230052</t>
+  </si>
+  <si>
     <t>230654</t>
   </si>
   <si>
-    <t>230052</t>
-  </si>
-  <si>
     <t>230065</t>
   </si>
   <si>
     <t>230527</t>
   </si>
   <si>
-    <t>230495</t>
-  </si>
-  <si>
     <t>230477</t>
   </si>
   <si>
@@ -319,12 +313,12 @@
     <t>230147</t>
   </si>
   <si>
+    <t>230218</t>
+  </si>
+  <si>
     <t>230070</t>
   </si>
   <si>
-    <t>230218</t>
-  </si>
-  <si>
     <t>230195</t>
   </si>
   <si>
@@ -358,15 +352,15 @@
     <t>230650</t>
   </si>
   <si>
+    <t>230175</t>
+  </si>
+  <si>
     <t>230375</t>
   </si>
   <si>
     <t>B-</t>
   </si>
   <si>
-    <t>230175</t>
-  </si>
-  <si>
     <t>230327</t>
   </si>
   <si>
@@ -376,6 +370,9 @@
     <t>230248</t>
   </si>
   <si>
+    <t>230581</t>
+  </si>
+  <si>
     <t>230730</t>
   </si>
   <si>
@@ -385,15 +382,12 @@
     <t>230208</t>
   </si>
   <si>
-    <t>230581</t>
+    <t>230033</t>
   </si>
   <si>
     <t>230444</t>
   </si>
   <si>
-    <t>230033</t>
-  </si>
-  <si>
     <t>230268</t>
   </si>
   <si>
@@ -412,12 +406,12 @@
     <t>230224</t>
   </si>
   <si>
+    <t>230238</t>
+  </si>
+  <si>
     <t>230203</t>
   </si>
   <si>
-    <t>230238</t>
-  </si>
-  <si>
     <t>230564</t>
   </si>
   <si>
@@ -460,7 +454,7 @@
     <t>11(73.3%)</t>
   </si>
   <si>
-    <t>77(67.0%)</t>
+    <t>79(68.7%)</t>
   </si>
   <si>
     <t>16(13.9%)</t>
@@ -481,7 +475,7 @@
     <t>46(40.0%)</t>
   </si>
   <si>
-    <t>12(10.4%)</t>
+    <t>11(9.6%)</t>
   </si>
   <si>
     <t>1(0.9%)</t>
@@ -505,7 +499,7 @@
     <t>2(13.3%)</t>
   </si>
   <si>
-    <t>6(5.2%)</t>
+    <t>5(4.3%)</t>
   </si>
   <si>
     <t>14(12.2%)</t>
@@ -524,9 +518,6 @@
   </si>
   <si>
     <t>21(18.3%)</t>
-  </si>
-  <si>
-    <t>5(4.3%)</t>
   </si>
   <si>
     <t>13(11.3%)</t>
@@ -553,8 +544,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,21 +582,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -643,7 +626,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -677,7 +660,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -712,10 +694,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -888,17 +869,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:XFD102"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1031,7 +1009,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1099,7 +1077,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1137,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
         <v>136</v>
@@ -1167,7 +1145,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1205,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s">
         <v>160</v>
@@ -1235,7 +1213,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1285,7 +1263,7 @@
         <v>166</v>
       </c>
       <c r="S6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="T6" t="s">
         <v>158</v>
@@ -1300,10 +1278,10 @@
         <v>166</v>
       </c>
       <c r="X6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1341,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P7" t="s">
         <v>166</v>
@@ -1371,7 +1349,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1439,7 +1417,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1477,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P9" t="s">
         <v>166</v>
@@ -1507,7 +1485,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1545,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P10" t="s">
         <v>166</v>
@@ -1575,7 +1553,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1592,19 +1570,19 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
@@ -1613,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P11" t="s">
         <v>166</v>
@@ -1643,7 +1621,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1660,19 +1638,19 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
@@ -1681,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P12" t="s">
         <v>166</v>
@@ -1711,7 +1689,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1749,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P13" t="s">
         <v>166</v>
@@ -1779,7 +1757,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1817,7 +1795,7 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P14" t="s">
         <v>166</v>
@@ -1847,7 +1825,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1915,7 +1893,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1953,7 +1931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1991,7 +1969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2029,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2067,7 +2045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2075,25 +2053,25 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
@@ -2105,7 +2083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2122,13 +2100,13 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -2143,7 +2121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2151,10 +2129,10 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -2163,13 +2141,13 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -2181,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2201,13 +2179,13 @@
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -2219,7 +2197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2239,10 +2217,10 @@
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
         <v>14</v>
@@ -2257,7 +2235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2271,22 +2249,22 @@
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
@@ -2295,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2309,22 +2287,22 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s">
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
@@ -2333,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2347,13 +2325,13 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
@@ -2371,7 +2349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2388,13 +2366,13 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
         <v>14</v>
@@ -2409,7 +2387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2420,10 +2398,10 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -2432,10 +2410,10 @@
         <v>17</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -2447,7 +2425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2455,10 +2433,10 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -2467,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
@@ -2485,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2523,7 +2501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2561,7 +2539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2599,7 +2577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2637,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2645,25 +2623,25 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -2675,7 +2653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2701,7 +2679,7 @@
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -2713,9 +2691,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
@@ -2727,36 +2705,36 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L37">
-        <v>3.9750000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2774,24 +2752,24 @@
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="L38">
-        <v>3.9620000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -2800,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -2821,15 +2799,15 @@
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L39">
-        <v>3.9620000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
@@ -2838,7 +2816,7 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -2847,7 +2825,7 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
         <v>17</v>
@@ -2859,15 +2837,15 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L40">
-        <v>3.9620000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -2882,30 +2860,30 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H41" t="s">
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J41" t="s">
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L41">
-        <v>3.9620000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
         <v>56</v>
@@ -2923,27 +2901,27 @@
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
         <v>14</v>
       </c>
       <c r="K42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L42">
-        <v>3.9620000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -2961,7 +2939,7 @@
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
         <v>17</v>
@@ -2976,12 +2954,12 @@
         <v>14</v>
       </c>
       <c r="L43">
-        <v>3.9620000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
         <v>58</v>
@@ -2993,7 +2971,7 @@
         <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -3002,24 +2980,24 @@
         <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L44">
-        <v>3.9620000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
@@ -3037,10 +3015,10 @@
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -3049,51 +3027,51 @@
         <v>17</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L45">
-        <v>3.9620000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J46" t="s">
         <v>17</v>
       </c>
       <c r="K46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L46">
-        <v>3.9550000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3101,7 +3079,7 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -3110,7 +3088,7 @@
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -3122,18 +3100,18 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L47">
-        <v>3.9489999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.955</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -3148,7 +3126,7 @@
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -3157,7 +3135,7 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J48" t="s">
         <v>14</v>
@@ -3166,12 +3144,12 @@
         <v>17</v>
       </c>
       <c r="L48">
-        <v>3.9489999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.947</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>63</v>
@@ -3186,16 +3164,16 @@
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
@@ -3204,12 +3182,12 @@
         <v>17</v>
       </c>
       <c r="L49">
-        <v>3.9489999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.947</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>64</v>
@@ -3230,7 +3208,7 @@
         <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s">
         <v>14</v>
@@ -3242,12 +3220,12 @@
         <v>17</v>
       </c>
       <c r="L50">
-        <v>3.9489999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.947</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
         <v>65</v>
@@ -3259,33 +3237,33 @@
         <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I51" t="s">
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
       </c>
       <c r="L51">
-        <v>3.9489999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.947</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>66</v>
@@ -3297,10 +3275,10 @@
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -3309,25 +3287,25 @@
         <v>17</v>
       </c>
       <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <v>3.947</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>67</v>
       </c>
-      <c r="J52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52">
-        <v>3.9409999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
@@ -3335,7 +3313,7 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -3344,24 +3322,24 @@
         <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K53" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="L53">
-        <v>3.9369999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.939</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>69</v>
@@ -3370,10 +3348,10 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -3385,21 +3363,21 @@
         <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J54" t="s">
         <v>17</v>
       </c>
       <c r="K54" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L54">
-        <v>3.9369999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.934</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>70</v>
@@ -3408,34 +3386,34 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K55" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L55">
-        <v>3.9239999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3455,10 +3433,10 @@
         <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s">
         <v>14</v>
@@ -3467,53 +3445,53 @@
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L56">
-        <v>3.9119999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
       </c>
       <c r="J57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
       </c>
       <c r="L57">
-        <v>3.9119999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.911</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -3522,19 +3500,19 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
         <v>14</v>
@@ -3543,15 +3521,15 @@
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L58">
-        <v>3.9119999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -3566,30 +3544,30 @@
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H59" t="s">
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L59">
-        <v>3.9119999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -3598,13 +3576,13 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
@@ -3613,21 +3591,21 @@
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L60">
-        <v>3.9119999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
@@ -3642,10 +3620,10 @@
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
         <v>17</v>
@@ -3657,15 +3635,15 @@
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L61">
-        <v>3.9119999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -3680,30 +3658,30 @@
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="L62">
-        <v>3.9119999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
@@ -3724,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s">
         <v>17</v>
@@ -3733,15 +3711,15 @@
         <v>17</v>
       </c>
       <c r="K63" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="L63">
-        <v>3.9119999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
@@ -3762,7 +3740,7 @@
         <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -3771,21 +3749,21 @@
         <v>17</v>
       </c>
       <c r="K64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L64">
-        <v>3.9119999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
         <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
@@ -3794,13 +3772,13 @@
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -3809,13 +3787,13 @@
         <v>17</v>
       </c>
       <c r="K65" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L65">
-        <v>3.911</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3835,25 +3813,25 @@
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H66" t="s">
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L66">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3873,7 +3851,7 @@
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H67" t="s">
         <v>17</v>
@@ -3885,13 +3863,13 @@
         <v>14</v>
       </c>
       <c r="K67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L67">
-        <v>3.8879999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3917,19 +3895,19 @@
         <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s">
         <v>14</v>
       </c>
       <c r="K68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L68">
-        <v>3.887</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.882</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3952,7 +3930,7 @@
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s">
         <v>14</v>
@@ -3961,13 +3939,13 @@
         <v>17</v>
       </c>
       <c r="K69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L69">
-        <v>3.8769999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.877</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3987,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -3999,13 +3977,13 @@
         <v>17</v>
       </c>
       <c r="K70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L70">
-        <v>3.875</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4040,10 +4018,10 @@
         <v>87</v>
       </c>
       <c r="L71">
-        <v>3.875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>69</v>
       </c>
@@ -4063,7 +4041,7 @@
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
@@ -4075,13 +4053,13 @@
         <v>14</v>
       </c>
       <c r="K72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L72">
-        <v>3.875</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.869</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>69</v>
       </c>
@@ -4098,30 +4076,30 @@
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H73" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L73">
-        <v>3.875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
         <v>90</v>
@@ -4136,28 +4114,28 @@
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I74" t="s">
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K74" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L74">
-        <v>3.8620000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4171,31 +4149,31 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s">
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K75" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L75">
-        <v>3.8450000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4212,10 +4190,10 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s">
         <v>17</v>
@@ -4227,13 +4205,13 @@
         <v>17</v>
       </c>
       <c r="K76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L76">
-        <v>3.8439999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.844</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4247,13 +4225,13 @@
         <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G77" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
         <v>17</v>
@@ -4265,15 +4243,15 @@
         <v>14</v>
       </c>
       <c r="K77" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="L77">
-        <v>3.8370000000000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.839</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>94</v>
@@ -4291,7 +4269,7 @@
         <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
@@ -4306,12 +4284,12 @@
         <v>87</v>
       </c>
       <c r="L78">
-        <v>3.8370000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>95</v>
@@ -4320,7 +4298,7 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -4329,25 +4307,25 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K79" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="L79">
-        <v>3.8370000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4358,7 +4336,7 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -4379,13 +4357,13 @@
         <v>17</v>
       </c>
       <c r="K80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L80">
-        <v>3.8250000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.817</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4402,10 +4380,10 @@
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
@@ -4417,13 +4395,13 @@
         <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L81">
-        <v>3.8250000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>79</v>
       </c>
@@ -4434,16 +4412,16 @@
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
@@ -4458,10 +4436,10 @@
         <v>17</v>
       </c>
       <c r="L82">
-        <v>3.8250000000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.817</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4469,19 +4447,19 @@
         <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
@@ -4490,16 +4468,16 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="L83">
-        <v>3.8159999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.811</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4507,19 +4485,19 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H84" t="s">
         <v>17</v>
@@ -4528,16 +4506,16 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K84" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="L84">
-        <v>3.8109999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.808</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4548,22 +4526,22 @@
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H85" t="s">
         <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s">
         <v>17</v>
@@ -4572,10 +4550,10 @@
         <v>17</v>
       </c>
       <c r="L85">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4592,13 +4570,13 @@
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I86" t="s">
         <v>14</v>
@@ -4610,10 +4588,10 @@
         <v>17</v>
       </c>
       <c r="L86">
-        <v>3.7949999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.786</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4645,13 +4623,13 @@
         <v>17</v>
       </c>
       <c r="K87" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L87">
-        <v>3.7869999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4668,10 +4646,10 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
@@ -4683,13 +4661,13 @@
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L88">
-        <v>3.7749999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.765</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4712,10 +4690,10 @@
         <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
@@ -4724,10 +4702,10 @@
         <v>87</v>
       </c>
       <c r="L89">
-        <v>3.766</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4744,10 +4722,10 @@
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
@@ -4759,13 +4737,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L90">
-        <v>3.758</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.747</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4773,19 +4751,19 @@
         <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H91" t="s">
         <v>17</v>
@@ -4800,10 +4778,10 @@
         <v>87</v>
       </c>
       <c r="L91">
-        <v>3.7440000000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.733</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4820,10 +4798,10 @@
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
@@ -4838,10 +4816,10 @@
         <v>87</v>
       </c>
       <c r="L92">
-        <v>3.7370000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.726</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4858,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G93" t="s">
         <v>87</v>
@@ -4873,13 +4851,13 @@
         <v>14</v>
       </c>
       <c r="K93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L93">
-        <v>3.7370000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4896,13 +4874,13 @@
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -4911,13 +4889,13 @@
         <v>17</v>
       </c>
       <c r="K94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L94">
-        <v>3.7250000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.713</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4928,19 +4906,19 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -4949,13 +4927,13 @@
         <v>14</v>
       </c>
       <c r="K95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L95">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4972,66 +4950,66 @@
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G96" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J96" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="K96" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="L96">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.695</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>68</v>
+      </c>
+      <c r="H97" t="s">
+        <v>52</v>
+      </c>
+      <c r="I97" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
         <v>114</v>
       </c>
-      <c r="C97" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s">
-        <v>67</v>
-      </c>
-      <c r="G97" t="s">
-        <v>51</v>
-      </c>
-      <c r="H97" t="s">
-        <v>51</v>
-      </c>
-      <c r="I97" t="s">
-        <v>51</v>
-      </c>
-      <c r="J97" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97" t="s">
-        <v>51</v>
-      </c>
       <c r="L97">
-        <v>3.6949999999999998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.686</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5048,13 +5026,13 @@
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I98" t="s">
         <v>14</v>
@@ -5066,10 +5044,10 @@
         <v>87</v>
       </c>
       <c r="L98">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.656</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5080,16 +5058,16 @@
         <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H99" t="s">
         <v>17</v>
@@ -5101,13 +5079,13 @@
         <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L99">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5118,16 +5096,16 @@
         <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H100" t="s">
         <v>17</v>
@@ -5142,10 +5120,10 @@
         <v>87</v>
       </c>
       <c r="L100">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5153,37 +5131,37 @@
         <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H101" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I101" t="s">
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K101" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="L101">
-        <v>3.641</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.629</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5194,7 +5172,7 @@
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -5203,10 +5181,10 @@
         <v>87</v>
       </c>
       <c r="G102" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="H102" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I102" t="s">
         <v>14</v>
@@ -5215,15 +5193,15 @@
         <v>14</v>
       </c>
       <c r="K102" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L102">
-        <v>3.633</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.626</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>120</v>
@@ -5235,69 +5213,69 @@
         <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
         <v>87</v>
       </c>
       <c r="G103" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="H103" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I103" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="L103">
-        <v>3.633</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.617</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>121</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I104" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
       </c>
       <c r="K104" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="L104">
-        <v>3.629</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.617</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5305,37 +5283,37 @@
         <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D105" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G105" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H105" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I105" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J105" t="s">
         <v>17</v>
       </c>
       <c r="K105" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="L105">
-        <v>3.6219999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.604</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5343,37 +5321,37 @@
         <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="E106" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H106" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I106" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J106" t="s">
         <v>17</v>
       </c>
       <c r="K106" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="L106">
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.596</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5384,19 +5362,19 @@
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I107" t="s">
         <v>14</v>
@@ -5405,13 +5383,13 @@
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L107">
-        <v>3.6040000000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.586</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5422,16 +5400,16 @@
         <v>13</v>
       </c>
       <c r="D108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H108" t="s">
         <v>17</v>
@@ -5443,13 +5421,13 @@
         <v>14</v>
       </c>
       <c r="K108" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L108">
-        <v>3.5950000000000002</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.578</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5466,13 +5444,13 @@
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
         <v>87</v>
       </c>
       <c r="H109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I109" t="s">
         <v>14</v>
@@ -5484,10 +5462,10 @@
         <v>127</v>
       </c>
       <c r="L109">
-        <v>3.5510000000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.551</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5498,34 +5476,34 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I110" t="s">
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L110">
-        <v>3.516</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.508</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5542,10 +5520,10 @@
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H111" t="s">
         <v>17</v>
@@ -5560,10 +5538,10 @@
         <v>127</v>
       </c>
       <c r="L111">
-        <v>3.508</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.486</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5571,37 +5549,37 @@
         <v>130</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F112" t="s">
         <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="H112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="J112" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K112" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="L112">
-        <v>3.4790000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.459</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5609,37 +5587,37 @@
         <v>131</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F113" t="s">
         <v>87</v>
       </c>
       <c r="G113" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="H113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I113" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K113" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="L113">
-        <v>3.4590000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5656,13 +5634,13 @@
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -5674,10 +5652,10 @@
         <v>87</v>
       </c>
       <c r="L114">
-        <v>3.4449999999999998</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5685,22 +5663,22 @@
         <v>133</v>
       </c>
       <c r="C115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H115" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I115" t="s">
         <v>14</v>
@@ -5712,10 +5690,10 @@
         <v>87</v>
       </c>
       <c r="L115">
-        <v>3.2919999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5726,31 +5704,31 @@
         <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G116" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I116" t="s">
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K116" t="s">
         <v>135</v>
       </c>
       <c r="L116">
-        <v>3.0950000000000002</v>
+        <v>3.069</v>
       </c>
     </row>
   </sheetData>
